--- a/Business Analysis/data/athina_playlist_metadata.xlsx
+++ b/Business Analysis/data/athina_playlist_metadata.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="157">
   <si>
     <t>acousticness</t>
   </si>
   <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
     <t>artist_name</t>
   </si>
   <si>
@@ -28,6 +34,9 @@
     <t>energy</t>
   </si>
   <si>
+    <t>gender</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -37,9 +46,18 @@
     <t>liveness</t>
   </si>
   <si>
+    <t>location</t>
+  </si>
+  <si>
     <t>loudness</t>
   </si>
   <si>
+    <t>mood</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
     <t>popularity</t>
   </si>
   <si>
@@ -55,9 +73,24 @@
     <t>tempo</t>
   </si>
   <si>
+    <t>user_id</t>
+  </si>
+  <si>
     <t>valence</t>
   </si>
   <si>
+    <t>Studying</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>Amusing</t>
+  </si>
+  <si>
+    <t>Working out</t>
+  </si>
+  <si>
     <t>Stive Morgan</t>
   </si>
   <si>
@@ -67,6 +100,9 @@
     <t>R Armando Morabito</t>
   </si>
   <si>
+    <t>DJ Snake</t>
+  </si>
+  <si>
     <t>Harry Styles</t>
   </si>
   <si>
@@ -79,18 +115,21 @@
     <t>Titiyo</t>
   </si>
   <si>
+    <t>Andy Moor</t>
+  </si>
+  <si>
     <t>Ken Hensley</t>
   </si>
   <si>
     <t>Flaer Smin</t>
   </si>
   <si>
+    <t>Depeche Mode</t>
+  </si>
+  <si>
     <t>Manchester Orchestra</t>
   </si>
   <si>
-    <t>Depeche Mode</t>
-  </si>
-  <si>
     <t>Amethystium</t>
   </si>
   <si>
@@ -136,6 +175,12 @@
     <t>Napy</t>
   </si>
   <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
     <t>6x4QOwELkBmymbbm3Q2gvz</t>
   </si>
   <si>
@@ -145,6 +190,9 @@
     <t>7f7f1GcRnsa4EZ2VZ1ZcsV</t>
   </si>
   <si>
+    <t>0lYBSQXN6rCTvUZvg9S0lU</t>
+  </si>
+  <si>
     <t>5Ohxk2dO5COHF1krpoPigN</t>
   </si>
   <si>
@@ -157,12 +205,18 @@
     <t>7GmHOAdriOnI9s5S79GAUr</t>
   </si>
   <si>
+    <t>4oEFasfKUTARKcju6qkJdG</t>
+  </si>
+  <si>
     <t>7LC2RIcKlE8TNUqT6JRogp</t>
   </si>
   <si>
     <t>6ONjby7uiQ1kFQD3GS0z6u</t>
   </si>
   <si>
+    <t>3i1Th1jZXXO0ZpGKhpTKWK</t>
+  </si>
+  <si>
     <t>72dIN8F7D5ydB3auSqNi84</t>
   </si>
   <si>
@@ -205,7 +259,7 @@
     <t>0T5UvWUZLuOWIRBpqXnNTd</t>
   </si>
   <si>
-    <t>6JASZK9W3TPUHbjvkw7K9F</t>
+    <t>0pqnGHJpmpxLKifKRmU6WP</t>
   </si>
   <si>
     <t>2sW8fmnISifQTRgnRrQTYW</t>
@@ -214,6 +268,51 @@
     <t>4nS3mqIeePL8KputLYdJ1X</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Outdoor</t>
+  </si>
+  <si>
+    <t>Pleased</t>
+  </si>
+  <si>
+    <t>Relaxed</t>
+  </si>
+  <si>
+    <t>Nervous</t>
+  </si>
+  <si>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t>Calm</t>
+  </si>
+  <si>
+    <t>Peaceful</t>
+  </si>
+  <si>
+    <t>Excited</t>
+  </si>
+  <si>
+    <t>Evening (6pm - 12am)</t>
+  </si>
+  <si>
+    <t>Morning (6am - 12pm)</t>
+  </si>
+  <si>
+    <t>Afternoon (12pm - 6pm)</t>
+  </si>
+  <si>
+    <t>Night (12am - 6am)</t>
+  </si>
+  <si>
     <t>2019-04-25</t>
   </si>
   <si>
@@ -223,6 +322,9 @@
     <t>2014-12-23</t>
   </si>
   <si>
+    <t>2016-08-05</t>
+  </si>
+  <si>
     <t>2017-05-12</t>
   </si>
   <si>
@@ -235,12 +337,18 @@
     <t>2001-01-01</t>
   </si>
   <si>
+    <t>2013-07-05</t>
+  </si>
+  <si>
     <t>2005-11-05</t>
   </si>
   <si>
     <t>2019-05-30</t>
   </si>
   <si>
+    <t>1987-09-28</t>
+  </si>
+  <si>
     <t>2017-07-28</t>
   </si>
   <si>
@@ -283,7 +391,7 @@
     <t>2010-11-29</t>
   </si>
   <si>
-    <t>2020-02-07</t>
+    <t>2017-06-23</t>
   </si>
   <si>
     <t>1994-01-01</t>
@@ -301,6 +409,9 @@
     <t>One More Time (feat. Malukah &amp; Tina Guo)</t>
   </si>
   <si>
+    <t>Let Me Love You</t>
+  </si>
+  <si>
     <t>Sign of the Times</t>
   </si>
   <si>
@@ -313,10 +424,16 @@
     <t>Come Along</t>
   </si>
   <si>
+    <t>Trespass - Masoud Chill Out Mix</t>
+  </si>
+  <si>
     <t>Lady in Black</t>
   </si>
   <si>
     <t>Catharsis</t>
+  </si>
+  <si>
+    <t>The Things You Said - 2006 Remaster</t>
   </si>
   <si>
     <t>The Silence</t>
@@ -725,13 +842,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,8 +891,29 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -783,46 +921,67 @@
         <v>0.143</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2">
         <v>0.517</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>0.671</v>
       </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2">
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2">
         <v>0.392</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>0.0974</v>
       </c>
-      <c r="I2">
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2">
         <v>-10.072</v>
       </c>
-      <c r="J2">
+      <c r="N2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2">
+      <c r="Q2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S2">
         <v>0.0279</v>
       </c>
-      <c r="N2">
+      <c r="T2">
         <v>188.021</v>
       </c>
-      <c r="O2">
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
         <v>0.862</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -830,46 +989,67 @@
         <v>0.407</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3">
         <v>0.544</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>0.463</v>
       </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3">
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>0.07480000000000001</v>
       </c>
-      <c r="I3">
+      <c r="L3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3">
         <v>-6.832</v>
       </c>
-      <c r="J3">
+      <c r="N3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3">
         <v>43</v>
       </c>
-      <c r="K3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3">
+      <c r="Q3" t="s">
+        <v>100</v>
+      </c>
+      <c r="R3" t="s">
+        <v>129</v>
+      </c>
+      <c r="S3">
         <v>0.0294</v>
       </c>
-      <c r="N3">
+      <c r="T3">
         <v>131.842</v>
       </c>
-      <c r="O3">
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
         <v>0.282</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -877,1170 +1057,1951 @@
         <v>0.696</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4">
         <v>0.553</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.528</v>
       </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4">
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4">
         <v>0.00108</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>0.104</v>
       </c>
-      <c r="I4">
+      <c r="L4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4">
         <v>-12.852</v>
       </c>
-      <c r="J4">
+      <c r="N4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4">
         <v>33</v>
       </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4">
+      <c r="Q4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" t="s">
+        <v>130</v>
+      </c>
+      <c r="S4">
         <v>0.0306</v>
       </c>
-      <c r="N4">
+      <c r="T4">
         <v>143.937</v>
       </c>
-      <c r="O4">
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
         <v>0.09520000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0275</v>
+        <v>0.0863</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>0.516</v>
-      </c>
-      <c r="E5">
-        <v>0.595</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>0.649</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0.109</v>
-      </c>
-      <c r="I5">
-        <v>-4.63</v>
+        <v>0.716</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
       </c>
       <c r="J5">
-        <v>78</v>
-      </c>
-      <c r="K5" t="s">
-        <v>69</v>
+        <v>2.63e-05</v>
+      </c>
+      <c r="K5">
+        <v>0.135</v>
       </c>
       <c r="L5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="M5">
-        <v>0.0313</v>
-      </c>
-      <c r="N5">
-        <v>119.972</v>
-      </c>
-      <c r="O5">
-        <v>0.222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>-5.371</v>
+      </c>
+      <c r="N5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5">
+        <v>80</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>102</v>
+      </c>
+      <c r="R5" t="s">
+        <v>131</v>
+      </c>
+      <c r="S5">
+        <v>0.0349</v>
+      </c>
+      <c r="T5">
+        <v>99.988</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>0.163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.142</v>
+        <v>0.0275</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>0.459</v>
-      </c>
-      <c r="E6">
-        <v>0.545</v>
-      </c>
-      <c r="F6" t="s">
         <v>44</v>
       </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>0.516</v>
+      </c>
       <c r="G6">
+        <v>0.595</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>0.105</v>
-      </c>
-      <c r="I6">
-        <v>-4.874</v>
-      </c>
-      <c r="J6">
-        <v>60</v>
-      </c>
-      <c r="K6" t="s">
-        <v>70</v>
+      <c r="K6">
+        <v>0.109</v>
       </c>
       <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6">
+        <v>-4.63</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
         <v>96</v>
       </c>
-      <c r="M6">
-        <v>0.0282</v>
-      </c>
-      <c r="N6">
-        <v>137.941</v>
-      </c>
-      <c r="O6">
-        <v>0.194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>78</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>103</v>
+      </c>
+      <c r="R6" t="s">
+        <v>132</v>
+      </c>
+      <c r="S6">
+        <v>0.0313</v>
+      </c>
+      <c r="T6">
+        <v>119.972</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.123</v>
+        <v>0.142</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>0.478</v>
-      </c>
-      <c r="E7">
-        <v>0.633</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>0.459</v>
       </c>
       <c r="G7">
+        <v>0.545</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>0.41</v>
-      </c>
-      <c r="I7">
-        <v>-6.19</v>
-      </c>
-      <c r="J7">
-        <v>67</v>
-      </c>
-      <c r="K7" t="s">
-        <v>71</v>
+      <c r="K7">
+        <v>0.105</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="M7">
-        <v>0.0345</v>
-      </c>
-      <c r="N7">
-        <v>89.90900000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>-4.874</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7">
+        <v>60</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>104</v>
+      </c>
+      <c r="R7" t="s">
+        <v>133</v>
+      </c>
+      <c r="S7">
+        <v>0.0282</v>
+      </c>
+      <c r="T7">
+        <v>137.941</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0.194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0641</v>
+        <v>0.123</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>0.645</v>
-      </c>
-      <c r="E8">
-        <v>0.787</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>0.478</v>
       </c>
       <c r="G8">
-        <v>0.513</v>
-      </c>
-      <c r="H8">
-        <v>0.341</v>
-      </c>
-      <c r="I8">
-        <v>-4.707</v>
+        <v>0.633</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>61</v>
       </c>
       <c r="J8">
-        <v>54</v>
-      </c>
-      <c r="K8" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.41</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M8">
-        <v>0.0274</v>
-      </c>
-      <c r="N8">
-        <v>84.116</v>
-      </c>
-      <c r="O8">
-        <v>0.906</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>-6.19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8">
+        <v>67</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>105</v>
+      </c>
+      <c r="R8" t="s">
+        <v>134</v>
+      </c>
+      <c r="S8">
+        <v>0.0345</v>
+      </c>
+      <c r="T8">
+        <v>89.90900000000001</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>0.287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.143</v>
+        <v>0.0641</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>0.517</v>
-      </c>
-      <c r="E9">
-        <v>0.671</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>0.645</v>
       </c>
       <c r="G9">
-        <v>0.392</v>
-      </c>
-      <c r="H9">
-        <v>0.0974</v>
-      </c>
-      <c r="I9">
-        <v>-10.072</v>
+        <v>0.787</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
       </c>
       <c r="J9">
-        <v>19</v>
-      </c>
-      <c r="K9" t="s">
-        <v>66</v>
+        <v>0.513</v>
+      </c>
+      <c r="K9">
+        <v>0.341</v>
       </c>
       <c r="L9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M9">
-        <v>0.0279</v>
-      </c>
-      <c r="N9">
-        <v>188.021</v>
-      </c>
-      <c r="O9">
-        <v>0.862</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>-4.707</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9">
+        <v>54</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R9" t="s">
+        <v>135</v>
+      </c>
+      <c r="S9">
+        <v>0.0274</v>
+      </c>
+      <c r="T9">
+        <v>84.116</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>0.906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0605</v>
+        <v>0.143</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>0.543</v>
-      </c>
-      <c r="E10">
-        <v>0.619</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>0.517</v>
       </c>
       <c r="G10">
-        <v>0.000146</v>
-      </c>
-      <c r="H10">
-        <v>0.0241</v>
-      </c>
-      <c r="I10">
-        <v>-7.689</v>
+        <v>0.671</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
       </c>
       <c r="J10">
-        <v>28</v>
-      </c>
-      <c r="K10" t="s">
-        <v>73</v>
+        <v>0.392</v>
+      </c>
+      <c r="K10">
+        <v>0.0974</v>
       </c>
       <c r="L10" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10">
+        <v>-10.072</v>
+      </c>
+      <c r="N10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10">
+        <v>19</v>
+      </c>
+      <c r="Q10" t="s">
         <v>99</v>
       </c>
-      <c r="M10">
-        <v>0.0271</v>
-      </c>
-      <c r="N10">
-        <v>93.16500000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="R10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S10">
+        <v>0.0279</v>
+      </c>
+      <c r="T10">
+        <v>188.021</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>0.862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.00156</v>
+        <v>0.287</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>0.554</v>
-      </c>
-      <c r="E11">
-        <v>0.585</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11">
+        <v>0.441</v>
       </c>
       <c r="G11">
-        <v>0.874</v>
-      </c>
-      <c r="H11">
-        <v>0.114</v>
-      </c>
-      <c r="I11">
-        <v>-8.571</v>
+        <v>0.664</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" t="s">
+        <v>63</v>
       </c>
       <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11" t="s">
-        <v>74</v>
+        <v>1e-05</v>
+      </c>
+      <c r="K11">
+        <v>0.141</v>
       </c>
       <c r="L11" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="M11">
-        <v>0.027</v>
-      </c>
-      <c r="N11">
-        <v>90.017</v>
-      </c>
-      <c r="O11">
-        <v>0.102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>-8.958</v>
+      </c>
+      <c r="N11" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11">
+        <v>31</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>107</v>
+      </c>
+      <c r="R11" t="s">
+        <v>136</v>
+      </c>
+      <c r="S11">
+        <v>0.0424</v>
+      </c>
+      <c r="T11">
+        <v>132.136</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>0.201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0626</v>
+        <v>0.0605</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12">
-        <v>0.451</v>
-      </c>
-      <c r="E12">
-        <v>0.355</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12">
+        <v>0.543</v>
       </c>
       <c r="G12">
-        <v>0.407</v>
-      </c>
-      <c r="H12">
-        <v>0.104</v>
-      </c>
-      <c r="I12">
-        <v>-8.484</v>
+        <v>0.619</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" t="s">
+        <v>64</v>
       </c>
       <c r="J12">
-        <v>54</v>
-      </c>
-      <c r="K12" t="s">
-        <v>75</v>
+        <v>0.000146</v>
+      </c>
+      <c r="K12">
+        <v>0.0241</v>
       </c>
       <c r="L12" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="M12">
-        <v>0.0263</v>
-      </c>
-      <c r="N12">
-        <v>67.026</v>
-      </c>
-      <c r="O12">
-        <v>0.165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>-7.689</v>
+      </c>
+      <c r="N12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12">
+        <v>28</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>108</v>
+      </c>
+      <c r="R12" t="s">
+        <v>137</v>
+      </c>
+      <c r="S12">
+        <v>0.0271</v>
+      </c>
+      <c r="T12">
+        <v>93.16500000000001</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>0.362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.701</v>
+        <v>0.00156</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>0.62</v>
-      </c>
-      <c r="E13">
-        <v>0.767</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13">
+        <v>0.554</v>
       </c>
       <c r="G13">
-        <v>0.0136</v>
-      </c>
-      <c r="H13">
-        <v>0.106</v>
-      </c>
-      <c r="I13">
-        <v>-8.16</v>
+        <v>0.585</v>
+      </c>
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" t="s">
+        <v>65</v>
       </c>
       <c r="J13">
-        <v>26</v>
-      </c>
-      <c r="K13" t="s">
-        <v>76</v>
+        <v>0.874</v>
+      </c>
+      <c r="K13">
+        <v>0.114</v>
       </c>
       <c r="L13" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M13">
-        <v>0.0287</v>
-      </c>
-      <c r="N13">
-        <v>95.036</v>
-      </c>
-      <c r="O13">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>-8.571</v>
+      </c>
+      <c r="N13" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>109</v>
+      </c>
+      <c r="R13" t="s">
+        <v>138</v>
+      </c>
+      <c r="S13">
+        <v>0.027</v>
+      </c>
+      <c r="T13">
+        <v>90.017</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0.102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.392</v>
+        <v>0.423</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>0.538</v>
-      </c>
-      <c r="E14">
-        <v>0.788</v>
-      </c>
-      <c r="F14" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14">
+        <v>0.572</v>
       </c>
       <c r="G14">
-        <v>0.237</v>
-      </c>
-      <c r="H14">
-        <v>0.217</v>
-      </c>
-      <c r="I14">
-        <v>-6.078</v>
+        <v>0.653</v>
+      </c>
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
       </c>
       <c r="J14">
-        <v>31</v>
-      </c>
-      <c r="K14" t="s">
-        <v>77</v>
+        <v>0.656</v>
+      </c>
+      <c r="K14">
+        <v>0.101</v>
       </c>
       <c r="L14" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M14">
-        <v>0.0269</v>
-      </c>
-      <c r="N14">
-        <v>100.005</v>
-      </c>
-      <c r="O14">
-        <v>0.457</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>-12.11</v>
+      </c>
+      <c r="N14" t="s">
+        <v>89</v>
+      </c>
+      <c r="O14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14">
+        <v>35</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>110</v>
+      </c>
+      <c r="R14" t="s">
+        <v>139</v>
+      </c>
+      <c r="S14">
+        <v>0.0251</v>
+      </c>
+      <c r="T14">
+        <v>110.049</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>0.532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.51</v>
+        <v>0.0626</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>0.486</v>
-      </c>
-      <c r="E15">
-        <v>0.902</v>
-      </c>
-      <c r="F15" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15">
+        <v>0.451</v>
       </c>
       <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0.138</v>
-      </c>
-      <c r="I15">
-        <v>-3.017</v>
+        <v>0.355</v>
+      </c>
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" t="s">
+        <v>67</v>
       </c>
       <c r="J15">
-        <v>19</v>
-      </c>
-      <c r="K15" t="s">
-        <v>78</v>
+        <v>0.407</v>
+      </c>
+      <c r="K15">
+        <v>0.104</v>
       </c>
       <c r="L15" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="M15">
-        <v>0.0461</v>
-      </c>
-      <c r="N15">
-        <v>153.991</v>
-      </c>
-      <c r="O15">
-        <v>0.624</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>-8.484</v>
+      </c>
+      <c r="N15" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15">
+        <v>54</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>111</v>
+      </c>
+      <c r="R15" t="s">
+        <v>140</v>
+      </c>
+      <c r="S15">
+        <v>0.0263</v>
+      </c>
+      <c r="T15">
+        <v>67.026</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>0.165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0.302</v>
-      </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>0.548</v>
-      </c>
-      <c r="E16">
-        <v>0.496</v>
-      </c>
-      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
         <v>53</v>
       </c>
-      <c r="G16">
-        <v>0.135</v>
-      </c>
-      <c r="H16">
-        <v>0.321</v>
-      </c>
-      <c r="I16">
-        <v>-13.466</v>
-      </c>
-      <c r="J16">
-        <v>47</v>
-      </c>
-      <c r="K16" t="s">
-        <v>79</v>
-      </c>
       <c r="L16" t="s">
-        <v>105</v>
-      </c>
-      <c r="M16">
-        <v>0.0355</v>
-      </c>
-      <c r="N16">
-        <v>102.062</v>
-      </c>
-      <c r="O16">
-        <v>0.0973</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>86</v>
+      </c>
+      <c r="N16" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" t="s">
+        <v>96</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0839</v>
+        <v>0.701</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>0.457</v>
-      </c>
-      <c r="E17">
-        <v>0.434</v>
-      </c>
-      <c r="F17" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>0.62</v>
       </c>
       <c r="G17">
-        <v>0.00552</v>
-      </c>
-      <c r="H17">
-        <v>0.123</v>
-      </c>
-      <c r="I17">
-        <v>-10.445</v>
+        <v>0.767</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" t="s">
+        <v>68</v>
       </c>
       <c r="J17">
-        <v>50</v>
-      </c>
-      <c r="K17" t="s">
-        <v>80</v>
+        <v>0.0136</v>
+      </c>
+      <c r="K17">
+        <v>0.106</v>
       </c>
       <c r="L17" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="M17">
-        <v>0.0366</v>
-      </c>
-      <c r="N17">
-        <v>180.145</v>
-      </c>
-      <c r="O17">
-        <v>0.0822</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>-8.16</v>
+      </c>
+      <c r="N17" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17">
+        <v>26</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>112</v>
+      </c>
+      <c r="R17" t="s">
+        <v>141</v>
+      </c>
+      <c r="S17">
+        <v>0.0287</v>
+      </c>
+      <c r="T17">
+        <v>95.036</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.317</v>
+        <v>0.392</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>0.351</v>
-      </c>
-      <c r="E18">
-        <v>0.498</v>
-      </c>
-      <c r="F18" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18">
+        <v>0.538</v>
       </c>
       <c r="G18">
-        <v>0.00516</v>
-      </c>
-      <c r="H18">
-        <v>0.661</v>
-      </c>
-      <c r="I18">
-        <v>-9.568</v>
+        <v>0.788</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" t="s">
+        <v>69</v>
       </c>
       <c r="J18">
-        <v>36</v>
-      </c>
-      <c r="K18" t="s">
-        <v>81</v>
+        <v>0.237</v>
+      </c>
+      <c r="K18">
+        <v>0.217</v>
       </c>
       <c r="L18" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="M18">
-        <v>0.0311</v>
-      </c>
-      <c r="N18">
-        <v>85.946</v>
-      </c>
-      <c r="O18">
-        <v>0.226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>-6.078</v>
+      </c>
+      <c r="N18" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18">
+        <v>31</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>113</v>
+      </c>
+      <c r="R18" t="s">
+        <v>142</v>
+      </c>
+      <c r="S18">
+        <v>0.0269</v>
+      </c>
+      <c r="T18">
+        <v>100.005</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>0.457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0.00697</v>
-      </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>0.437</v>
-      </c>
-      <c r="E19">
-        <v>0.719</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19">
-        <v>3.86e-05</v>
-      </c>
-      <c r="H19">
-        <v>0.0765</v>
-      </c>
-      <c r="I19">
-        <v>-4.569</v>
-      </c>
-      <c r="J19">
-        <v>60</v>
-      </c>
-      <c r="K19" t="s">
-        <v>82</v>
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
+        <v>53</v>
       </c>
       <c r="L19" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19">
-        <v>0.0376</v>
-      </c>
-      <c r="N19">
-        <v>169.976</v>
-      </c>
-      <c r="O19">
-        <v>0.284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>86</v>
+      </c>
+      <c r="N19" t="s">
+        <v>92</v>
+      </c>
+      <c r="O19" t="s">
+        <v>97</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.964</v>
+        <v>0.51</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>0.0847</v>
-      </c>
-      <c r="E20">
-        <v>0.0856</v>
-      </c>
-      <c r="F20" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20">
+        <v>0.486</v>
       </c>
       <c r="G20">
-        <v>0.592</v>
-      </c>
-      <c r="H20">
-        <v>0.289</v>
-      </c>
-      <c r="I20">
-        <v>-24.716</v>
+        <v>0.902</v>
+      </c>
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" t="s">
+        <v>70</v>
       </c>
       <c r="J20">
-        <v>45</v>
-      </c>
-      <c r="K20" t="s">
-        <v>83</v>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0.138</v>
       </c>
       <c r="L20" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="M20">
-        <v>0.0405</v>
-      </c>
-      <c r="N20">
-        <v>84.245</v>
-      </c>
-      <c r="O20">
-        <v>0.0764</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>-3.017</v>
+      </c>
+      <c r="N20" t="s">
+        <v>88</v>
+      </c>
+      <c r="O20" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20">
+        <v>19</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>114</v>
+      </c>
+      <c r="R20" t="s">
+        <v>143</v>
+      </c>
+      <c r="S20">
+        <v>0.0461</v>
+      </c>
+      <c r="T20">
+        <v>153.991</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9</v>
+        <v>0.302</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>0.173</v>
-      </c>
-      <c r="E21">
-        <v>0.259</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21">
+        <v>0.548</v>
       </c>
       <c r="G21">
-        <v>0.931</v>
-      </c>
-      <c r="H21">
-        <v>0.414</v>
-      </c>
-      <c r="I21">
-        <v>-12.994</v>
+        <v>0.496</v>
+      </c>
+      <c r="H21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" t="s">
+        <v>71</v>
       </c>
       <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>84</v>
+        <v>0.135</v>
+      </c>
+      <c r="K21">
+        <v>0.321</v>
       </c>
       <c r="L21" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="M21">
-        <v>0.0362</v>
-      </c>
-      <c r="N21">
-        <v>118.87</v>
-      </c>
-      <c r="O21">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>-13.466</v>
+      </c>
+      <c r="N21" t="s">
+        <v>88</v>
+      </c>
+      <c r="O21" t="s">
+        <v>95</v>
+      </c>
+      <c r="P21">
+        <v>47</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>115</v>
+      </c>
+      <c r="R21" t="s">
+        <v>144</v>
+      </c>
+      <c r="S21">
+        <v>0.0355</v>
+      </c>
+      <c r="T21">
+        <v>102.062</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>0.0973</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.00109</v>
+        <v>0.0839</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>0.465</v>
-      </c>
-      <c r="E22">
-        <v>0.844</v>
-      </c>
-      <c r="F22" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22">
+        <v>0.457</v>
       </c>
       <c r="G22">
-        <v>0.399</v>
-      </c>
-      <c r="H22">
-        <v>0.08649999999999999</v>
-      </c>
-      <c r="I22">
-        <v>-4.352</v>
+        <v>0.434</v>
+      </c>
+      <c r="H22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" t="s">
+        <v>72</v>
       </c>
       <c r="J22">
-        <v>59</v>
-      </c>
-      <c r="K22" t="s">
-        <v>85</v>
+        <v>0.00552</v>
+      </c>
+      <c r="K22">
+        <v>0.123</v>
       </c>
       <c r="L22" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="M22">
-        <v>0.0379</v>
-      </c>
-      <c r="N22">
-        <v>170.358</v>
-      </c>
-      <c r="O22">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>-10.445</v>
+      </c>
+      <c r="N22" t="s">
+        <v>91</v>
+      </c>
+      <c r="O22" t="s">
+        <v>95</v>
+      </c>
+      <c r="P22">
+        <v>50</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>116</v>
+      </c>
+      <c r="R22" t="s">
+        <v>145</v>
+      </c>
+      <c r="S22">
+        <v>0.0366</v>
+      </c>
+      <c r="T22">
+        <v>180.145</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>0.0822</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.857</v>
+        <v>0.317</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>0.543</v>
-      </c>
-      <c r="E23">
-        <v>0.311</v>
-      </c>
-      <c r="F23" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23">
+        <v>0.351</v>
       </c>
       <c r="G23">
-        <v>0.000684</v>
-      </c>
-      <c r="H23">
-        <v>0.0983</v>
-      </c>
-      <c r="I23">
-        <v>-10.018</v>
+        <v>0.498</v>
+      </c>
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" t="s">
+        <v>73</v>
       </c>
       <c r="J23">
-        <v>49</v>
-      </c>
-      <c r="K23" t="s">
+        <v>0.00516</v>
+      </c>
+      <c r="K23">
+        <v>0.661</v>
+      </c>
+      <c r="L23" t="s">
         <v>86</v>
       </c>
-      <c r="L23" t="s">
-        <v>112</v>
-      </c>
       <c r="M23">
-        <v>0.0361</v>
-      </c>
-      <c r="N23">
-        <v>126.86</v>
-      </c>
-      <c r="O23">
-        <v>0.134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>-9.568</v>
+      </c>
+      <c r="N23" t="s">
+        <v>91</v>
+      </c>
+      <c r="O23" t="s">
+        <v>96</v>
+      </c>
+      <c r="P23">
+        <v>36</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>117</v>
+      </c>
+      <c r="R23" t="s">
+        <v>146</v>
+      </c>
+      <c r="S23">
+        <v>0.0311</v>
+      </c>
+      <c r="T23">
+        <v>85.946</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>0.226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.273</v>
+        <v>0.00697</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>0.506</v>
-      </c>
-      <c r="E24">
-        <v>0.323</v>
-      </c>
-      <c r="F24" t="s">
-        <v>61</v>
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24">
+        <v>0.437</v>
       </c>
       <c r="G24">
-        <v>0.916</v>
-      </c>
-      <c r="H24">
-        <v>0.0788</v>
-      </c>
-      <c r="I24">
-        <v>-12.19</v>
+        <v>0.719</v>
+      </c>
+      <c r="H24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" t="s">
+        <v>74</v>
       </c>
       <c r="J24">
-        <v>11</v>
-      </c>
-      <c r="K24" t="s">
-        <v>87</v>
+        <v>3.86e-05</v>
+      </c>
+      <c r="K24">
+        <v>0.0765</v>
       </c>
       <c r="L24" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="M24">
-        <v>0.0295</v>
-      </c>
-      <c r="N24">
-        <v>90.035</v>
-      </c>
-      <c r="O24">
-        <v>0.0368</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>-4.569</v>
+      </c>
+      <c r="N24" t="s">
+        <v>91</v>
+      </c>
+      <c r="O24" t="s">
+        <v>96</v>
+      </c>
+      <c r="P24">
+        <v>60</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>118</v>
+      </c>
+      <c r="R24" t="s">
+        <v>147</v>
+      </c>
+      <c r="S24">
+        <v>0.0376</v>
+      </c>
+      <c r="T24">
+        <v>169.976</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>0.284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.848</v>
+        <v>0.964</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>0.497</v>
-      </c>
-      <c r="E25">
-        <v>0.425</v>
-      </c>
-      <c r="F25" t="s">
-        <v>62</v>
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25">
+        <v>0.0847</v>
       </c>
       <c r="G25">
-        <v>0.121</v>
-      </c>
-      <c r="H25">
-        <v>0.126</v>
-      </c>
-      <c r="I25">
-        <v>-11.589</v>
+        <v>0.0856</v>
+      </c>
+      <c r="H25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" t="s">
+        <v>75</v>
       </c>
       <c r="J25">
-        <v>39</v>
-      </c>
-      <c r="K25" t="s">
-        <v>88</v>
+        <v>0.592</v>
+      </c>
+      <c r="K25">
+        <v>0.289</v>
       </c>
       <c r="L25" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="M25">
-        <v>0.0265</v>
-      </c>
-      <c r="N25">
-        <v>134.31</v>
-      </c>
-      <c r="O25">
-        <v>0.156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>-24.716</v>
+      </c>
+      <c r="N25" t="s">
+        <v>93</v>
+      </c>
+      <c r="O25" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25">
+        <v>45</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>119</v>
+      </c>
+      <c r="R25" t="s">
+        <v>148</v>
+      </c>
+      <c r="S25">
+        <v>0.0405</v>
+      </c>
+      <c r="T25">
+        <v>84.245</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25">
+        <v>0.0764</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.0532</v>
+        <v>0.9</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>0.761</v>
-      </c>
-      <c r="E26">
-        <v>0.783</v>
-      </c>
-      <c r="F26" t="s">
-        <v>63</v>
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26">
+        <v>0.173</v>
       </c>
       <c r="G26">
+        <v>0.259</v>
+      </c>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26">
+        <v>0.931</v>
+      </c>
+      <c r="K26">
+        <v>0.414</v>
+      </c>
+      <c r="L26" t="s">
+        <v>86</v>
+      </c>
+      <c r="M26">
+        <v>-12.994</v>
+      </c>
+      <c r="N26" t="s">
+        <v>93</v>
+      </c>
+      <c r="O26" t="s">
+        <v>95</v>
+      </c>
+      <c r="P26">
         <v>0</v>
       </c>
-      <c r="H26">
-        <v>0.0699</v>
-      </c>
-      <c r="I26">
-        <v>-3.928</v>
-      </c>
-      <c r="J26">
-        <v>13</v>
-      </c>
-      <c r="K26" t="s">
-        <v>89</v>
-      </c>
-      <c r="L26" t="s">
-        <v>115</v>
-      </c>
-      <c r="M26">
-        <v>0.09429999999999999</v>
-      </c>
-      <c r="N26">
-        <v>124.965</v>
-      </c>
-      <c r="O26">
-        <v>0.713</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="Q26" t="s">
+        <v>120</v>
+      </c>
+      <c r="R26" t="s">
+        <v>149</v>
+      </c>
+      <c r="S26">
+        <v>0.0362</v>
+      </c>
+      <c r="T26">
+        <v>118.87</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26">
+        <v>0.079</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.778</v>
+        <v>0.00109</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>0.606</v>
-      </c>
-      <c r="E27">
-        <v>0.294</v>
-      </c>
-      <c r="F27" t="s">
-        <v>64</v>
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27">
+        <v>0.465</v>
       </c>
       <c r="G27">
-        <v>0.162</v>
-      </c>
-      <c r="H27">
-        <v>0.106</v>
-      </c>
-      <c r="I27">
-        <v>-11.836</v>
+        <v>0.844</v>
+      </c>
+      <c r="H27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" t="s">
+        <v>77</v>
       </c>
       <c r="J27">
-        <v>61</v>
-      </c>
-      <c r="K27" t="s">
-        <v>90</v>
+        <v>0.399</v>
+      </c>
+      <c r="K27">
+        <v>0.08649999999999999</v>
       </c>
       <c r="L27" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="M27">
-        <v>0.0764</v>
-      </c>
-      <c r="N27">
-        <v>76.083</v>
-      </c>
-      <c r="O27">
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>-4.352</v>
+      </c>
+      <c r="N27" t="s">
+        <v>93</v>
+      </c>
+      <c r="O27" t="s">
+        <v>95</v>
+      </c>
+      <c r="P27">
+        <v>59</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>121</v>
+      </c>
+      <c r="R27" t="s">
+        <v>150</v>
+      </c>
+      <c r="S27">
+        <v>0.0379</v>
+      </c>
+      <c r="T27">
+        <v>170.358</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
+        <v>0.857</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28">
+        <v>0.543</v>
+      </c>
+      <c r="G28">
+        <v>0.311</v>
+      </c>
+      <c r="H28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28">
+        <v>0.000684</v>
+      </c>
+      <c r="K28">
+        <v>0.0983</v>
+      </c>
+      <c r="L28" t="s">
+        <v>86</v>
+      </c>
+      <c r="M28">
+        <v>-10.018</v>
+      </c>
+      <c r="N28" t="s">
+        <v>93</v>
+      </c>
+      <c r="O28" t="s">
+        <v>95</v>
+      </c>
+      <c r="P28">
+        <v>49</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>122</v>
+      </c>
+      <c r="R28" t="s">
+        <v>151</v>
+      </c>
+      <c r="S28">
+        <v>0.0361</v>
+      </c>
+      <c r="T28">
+        <v>126.86</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>0.134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.273</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29">
+        <v>0.506</v>
+      </c>
+      <c r="G29">
+        <v>0.323</v>
+      </c>
+      <c r="H29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29">
+        <v>0.916</v>
+      </c>
+      <c r="K29">
+        <v>0.0788</v>
+      </c>
+      <c r="L29" t="s">
+        <v>86</v>
+      </c>
+      <c r="M29">
+        <v>-12.19</v>
+      </c>
+      <c r="N29" t="s">
+        <v>92</v>
+      </c>
+      <c r="O29" t="s">
+        <v>95</v>
+      </c>
+      <c r="P29">
+        <v>11</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>123</v>
+      </c>
+      <c r="R29" t="s">
+        <v>152</v>
+      </c>
+      <c r="S29">
+        <v>0.0295</v>
+      </c>
+      <c r="T29">
+        <v>90.035</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="V29">
+        <v>0.0368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.848</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30">
+        <v>0.497</v>
+      </c>
+      <c r="G30">
+        <v>0.425</v>
+      </c>
+      <c r="H30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30">
+        <v>0.121</v>
+      </c>
+      <c r="K30">
+        <v>0.126</v>
+      </c>
+      <c r="L30" t="s">
+        <v>86</v>
+      </c>
+      <c r="M30">
+        <v>-11.589</v>
+      </c>
+      <c r="N30" t="s">
+        <v>91</v>
+      </c>
+      <c r="O30" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30">
+        <v>39</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>124</v>
+      </c>
+      <c r="R30" t="s">
+        <v>153</v>
+      </c>
+      <c r="S30">
+        <v>0.0265</v>
+      </c>
+      <c r="T30">
+        <v>134.31</v>
+      </c>
+      <c r="U30">
+        <v>2</v>
+      </c>
+      <c r="V30">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.0622</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31">
+        <v>0.776</v>
+      </c>
+      <c r="G31">
+        <v>0.78</v>
+      </c>
+      <c r="H31" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0.081</v>
+      </c>
+      <c r="L31" t="s">
+        <v>87</v>
+      </c>
+      <c r="M31">
+        <v>-4.374</v>
+      </c>
+      <c r="N31" t="s">
+        <v>94</v>
+      </c>
+      <c r="O31" t="s">
+        <v>95</v>
+      </c>
+      <c r="P31">
+        <v>87</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>125</v>
+      </c>
+      <c r="R31" t="s">
+        <v>154</v>
+      </c>
+      <c r="S31">
+        <v>0.128</v>
+      </c>
+      <c r="T31">
+        <v>124.949</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>0.666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.778</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>26</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32">
+        <v>0.606</v>
+      </c>
+      <c r="G32">
+        <v>0.294</v>
+      </c>
+      <c r="H32" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32">
+        <v>0.162</v>
+      </c>
+      <c r="K32">
+        <v>0.106</v>
+      </c>
+      <c r="L32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M32">
+        <v>-11.836</v>
+      </c>
+      <c r="N32" t="s">
+        <v>89</v>
+      </c>
+      <c r="O32" t="s">
+        <v>98</v>
+      </c>
+      <c r="P32">
+        <v>61</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>126</v>
+      </c>
+      <c r="R32" t="s">
+        <v>155</v>
+      </c>
+      <c r="S32">
+        <v>0.0764</v>
+      </c>
+      <c r="T32">
+        <v>76.083</v>
+      </c>
+      <c r="U32">
+        <v>3</v>
+      </c>
+      <c r="V32">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
         <v>0.00678</v>
       </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28">
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33">
         <v>0.853</v>
       </c>
-      <c r="E28">
+      <c r="G33">
         <v>0.541</v>
       </c>
-      <c r="F28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28">
+      <c r="H33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33">
         <v>0.000224</v>
       </c>
-      <c r="H28">
+      <c r="K33">
         <v>0.337</v>
       </c>
-      <c r="I28">
+      <c r="L33" t="s">
+        <v>85</v>
+      </c>
+      <c r="M33">
         <v>-10.229</v>
       </c>
-      <c r="J28">
+      <c r="N33" t="s">
+        <v>94</v>
+      </c>
+      <c r="O33" t="s">
+        <v>97</v>
+      </c>
+      <c r="P33">
         <v>29</v>
       </c>
-      <c r="K28" t="s">
-        <v>91</v>
-      </c>
-      <c r="L28" t="s">
-        <v>117</v>
-      </c>
-      <c r="M28">
+      <c r="Q33" t="s">
+        <v>127</v>
+      </c>
+      <c r="R33" t="s">
+        <v>156</v>
+      </c>
+      <c r="S33">
         <v>0.115</v>
       </c>
-      <c r="N28">
+      <c r="T33">
         <v>124.001</v>
       </c>
-      <c r="O28">
+      <c r="U33">
+        <v>4</v>
+      </c>
+      <c r="V33">
         <v>0.62</v>
       </c>
     </row>

--- a/Business Analysis/data/athina_playlist_metadata.xlsx
+++ b/Business Analysis/data/athina_playlist_metadata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="496">
   <si>
     <t>acousticness</t>
   </si>
@@ -91,6 +91,12 @@
     <t>Working out</t>
   </si>
   <si>
+    <t>amusing</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
     <t>Stive Morgan</t>
   </si>
   <si>
@@ -130,9 +136,15 @@
     <t>Manchester Orchestra</t>
   </si>
   <si>
+    <t>Goldfrapp,Dave Gahan</t>
+  </si>
+  <si>
     <t>Amethystium</t>
   </si>
   <si>
+    <t>Schiller,Jael</t>
+  </si>
+  <si>
     <t>Cody McConnell</t>
   </si>
   <si>
@@ -148,6 +160,12 @@
     <t>Sia</t>
   </si>
   <si>
+    <t>Amy Winehouse</t>
+  </si>
+  <si>
+    <t>Amy Macdonald</t>
+  </si>
+  <si>
     <t>Wolfgang Amadeus Mozart</t>
   </si>
   <si>
@@ -175,12 +193,276 @@
     <t>Napy</t>
   </si>
   <si>
+    <t>Sokratis Malamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sokratis Malamas </t>
+  </si>
+  <si>
+    <t>Fotis Siotas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fotis Siotas </t>
+  </si>
+  <si>
+    <t>Nikos Portokaloglou</t>
+  </si>
+  <si>
+    <t>Alkinoos Ioannidis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miltos Pasxalidis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimitris Zervoudakis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Babis Stokas </t>
+  </si>
+  <si>
+    <t>Kostas Tournas</t>
+  </si>
+  <si>
+    <t>Eleni Tsaligopoulou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kostas Triantafyllidis </t>
+  </si>
+  <si>
+    <t>Christos Thivaios</t>
+  </si>
+  <si>
+    <t>Penny Baltatzi</t>
+  </si>
+  <si>
+    <t>Imam Baildi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimitris Panagopoulos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eleonora Zouganeli </t>
+  </si>
+  <si>
+    <t>Thodoris Voutsikakis</t>
+  </si>
+  <si>
+    <t>Sofia Vossou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavrentis Maxairitsas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eleni Vitali </t>
+  </si>
+  <si>
+    <t>Dimitris Mitropanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sakis Boulas </t>
+  </si>
+  <si>
+    <t>Thanos Mikroutsikos</t>
+  </si>
+  <si>
+    <t>Natassa Mpofiliou</t>
+  </si>
+  <si>
+    <t>Eleftheria Arvanitaki</t>
+  </si>
+  <si>
+    <t>Vasilis Kazoulis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monika </t>
+  </si>
+  <si>
+    <t>Arleta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marina Satti </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasilis Papakonstantinou </t>
+  </si>
+  <si>
+    <t>Kostas Makedonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trifono </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giannis Kotsiras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alkinoos Ioannidis </t>
+  </si>
+  <si>
+    <t>Haris Alexiou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giannis Miliokas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giorgos Ntalaras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giannis Xaroulis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasilis Skoulas </t>
+  </si>
+  <si>
+    <t>Petros Gaitanos</t>
+  </si>
+  <si>
+    <t>Buddy Guy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danny Bryant's Red Eye Band </t>
+  </si>
+  <si>
+    <t>John Lee Hooker, Jr.</t>
+  </si>
+  <si>
+    <t>Michael Dotson</t>
+  </si>
+  <si>
+    <t>Reloaded Norway</t>
+  </si>
+  <si>
+    <t>Albert King</t>
+  </si>
+  <si>
+    <t>Trae Tha Truth</t>
+  </si>
+  <si>
+    <t>Thorbjørn Risager</t>
+  </si>
+  <si>
+    <t>Danielle M and the Glory Junkies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kris Pohlmann Band </t>
+  </si>
+  <si>
+    <t>Alligator Jackson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inga Rumpf &amp; Friends </t>
+  </si>
+  <si>
+    <t>Tom Killner</t>
+  </si>
+  <si>
+    <t>Coco Montoya</t>
+  </si>
+  <si>
+    <t>Joanne Shaw Taylor</t>
+  </si>
+  <si>
+    <t>Dutch Mason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cruel Sea </t>
+  </si>
+  <si>
+    <t>Van Morrison</t>
+  </si>
+  <si>
+    <t>Tom Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Rusties Blues Band </t>
+  </si>
+  <si>
+    <t>Mick Kolassa</t>
+  </si>
+  <si>
+    <t>B.B. &amp; The Blues Shacks</t>
+  </si>
+  <si>
+    <t>First Class Blues Band</t>
+  </si>
+  <si>
+    <t>Jimmy Dawkins</t>
+  </si>
+  <si>
+    <t>Bryce Janey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernie Marsden Feat. Jim Copley </t>
+  </si>
+  <si>
+    <t>The Sonny Moorman Group</t>
+  </si>
+  <si>
+    <t>Kal David</t>
+  </si>
+  <si>
+    <t>Robert Cray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seanor &amp; Koss </t>
+  </si>
+  <si>
+    <t>Stan Webb's Chicken Shack</t>
+  </si>
+  <si>
+    <t>Brother 2 Brother</t>
+  </si>
+  <si>
+    <t>Gary Moore</t>
+  </si>
+  <si>
+    <t>True Strays</t>
+  </si>
+  <si>
+    <t>The Ronettes</t>
+  </si>
+  <si>
+    <t>HUGH LAURIE feat.  GABY MOR</t>
+  </si>
+  <si>
+    <t>Dinah Washington</t>
+  </si>
+  <si>
+    <t>Balthazar</t>
+  </si>
+  <si>
+    <t>Flume</t>
+  </si>
+  <si>
+    <t>Florence + The Machine</t>
+  </si>
+  <si>
+    <t>Noir Désir</t>
+  </si>
+  <si>
+    <t>Ms. Lauryn Hill</t>
+  </si>
+  <si>
+    <t>Kasabian</t>
+  </si>
+  <si>
+    <t>Tindersticks</t>
+  </si>
+  <si>
+    <t>The Rolling Stones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUNKY BOOGIE BROTHERS </t>
+  </si>
+  <si>
     <t>Female</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
+    <t>female</t>
+  </si>
+  <si>
     <t>6x4QOwELkBmymbbm3Q2gvz</t>
   </si>
   <si>
@@ -241,6 +523,12 @@
     <t>5KGTKwOePys7aH4o6EzXEP</t>
   </si>
   <si>
+    <t>30FURVTCpbKyykjSEQzGkH</t>
+  </si>
+  <si>
+    <t>3AI7ca5RpYLyqaVgU7K1AP</t>
+  </si>
+  <si>
     <t>1UvaZaHkh3D9AkmBrrnbFg</t>
   </si>
   <si>
@@ -268,6 +556,207 @@
     <t>4nS3mqIeePL8KputLYdJ1X</t>
   </si>
   <si>
+    <t>1IxU17Acd2ihRnCiPU5J79</t>
+  </si>
+  <si>
+    <t>1hs78IYFN7eOJld4I10c4C</t>
+  </si>
+  <si>
+    <t>2ZBW2f3e8xLzQ0QefTHnLJ</t>
+  </si>
+  <si>
+    <t>6ZpO8PylJeIMCd8YnI5cAx</t>
+  </si>
+  <si>
+    <t>2EiCI7SzYCR9xvg6WqmGRn</t>
+  </si>
+  <si>
+    <t>429da6KPu3EiQjWkyaauH1</t>
+  </si>
+  <si>
+    <t>2yUaNr27EuPt0CemQczC8B</t>
+  </si>
+  <si>
+    <t>1484EMIuBwHHmhtwFKPkKg</t>
+  </si>
+  <si>
+    <t>1c6oyCd2mpPm87vHgWvbWD</t>
+  </si>
+  <si>
+    <t>4vbgfw5w2BKT0Hlyx9mXsw</t>
+  </si>
+  <si>
+    <t>51C0sKwvCLi2FDJTzm4YEj</t>
+  </si>
+  <si>
+    <t>6MAPjHsYTTu9odelh3XyuW</t>
+  </si>
+  <si>
+    <t>4F6ititsggLZblh9XjGwjS</t>
+  </si>
+  <si>
+    <t>5AVN0jZT3yyZNhWY5WOvyi</t>
+  </si>
+  <si>
+    <t>3s2jCifITJfF4C2LowswO6</t>
+  </si>
+  <si>
+    <t>3rSj1RzieElz0d8WzbOIuX</t>
+  </si>
+  <si>
+    <t>1dvsOaqtpFXOm86NFB6vIq</t>
+  </si>
+  <si>
+    <t>56lITS13RTTCPu3GYOIbQo</t>
+  </si>
+  <si>
+    <t>64CDnJJmjRsMccthpSFuxH</t>
+  </si>
+  <si>
+    <t>7BYSaev61jYYaQX6acjexS</t>
+  </si>
+  <si>
+    <t>5iq46N6lKkfqKT1HYi4T5I</t>
+  </si>
+  <si>
+    <t>1FrnKvFBkdhcwOYnxqbJ3Y</t>
+  </si>
+  <si>
+    <t>28ZN5irD9i63DZ0mlZ8yUl</t>
+  </si>
+  <si>
+    <t>64n4XWpat5ZEmHLnOkVJMU</t>
+  </si>
+  <si>
+    <t>3beKemaFr74iP1KmO3Lu2b</t>
+  </si>
+  <si>
+    <t>6XczJevH2jZkTACnMvljle</t>
+  </si>
+  <si>
+    <t>42l4xEbgjbVFR2iCBlHtLP</t>
+  </si>
+  <si>
+    <t>1burLEoG24IphLYIZYqA57</t>
+  </si>
+  <si>
+    <t>2l95B2d1H1fDS6jCK8RWwg</t>
+  </si>
+  <si>
+    <t>2XeunoDH7VCkliULNQ5nVI</t>
+  </si>
+  <si>
+    <t>0hNm6YJO7S7CRZVUKJO6cx</t>
+  </si>
+  <si>
+    <t>0nF4q8xlAGHjGMbAmkRUeS</t>
+  </si>
+  <si>
+    <t>6fwAO42BWVOAp8AVCFn2e7</t>
+  </si>
+  <si>
+    <t>77tsD2Ai9gdjePMqF4TxPS</t>
+  </si>
+  <si>
+    <t>1iDnag7hwVSAncRE68xGg7</t>
+  </si>
+  <si>
+    <t>0D0nGpmxOC8fHmxIeH5t20</t>
+  </si>
+  <si>
+    <t>2ONUYFnwLfStnCrKnZVmW7</t>
+  </si>
+  <si>
+    <t>2NHUBuEoLLNxhIrGMBQYl6</t>
+  </si>
+  <si>
+    <t>0QzP2cku6fEG73lJfpV2eb</t>
+  </si>
+  <si>
+    <t>3D6paKRUMAmLSjui4XRL6I</t>
+  </si>
+  <si>
+    <t>0wK8BfjIxnjSunmZ2h9ZOf</t>
+  </si>
+  <si>
+    <t>2Dyy2fiv4tROj2y9ZZ5eCE</t>
+  </si>
+  <si>
+    <t>7y7F4K2CyE2Dl6ArtZqXvE</t>
+  </si>
+  <si>
+    <t>3zQzer4Jh9shkFvSQ73cie</t>
+  </si>
+  <si>
+    <t>1zcJWKMNHMb5eSzoWMQeZZ</t>
+  </si>
+  <si>
+    <t>4rZcuvL6hysIvxqeGsJ942</t>
+  </si>
+  <si>
+    <t>3RsZErYlxrtjeu8Xr0Jt3z</t>
+  </si>
+  <si>
+    <t>7nioClwGQ5vcOfP9e9sAIX</t>
+  </si>
+  <si>
+    <t>4iCGponBWFGsR3MTym95Ft</t>
+  </si>
+  <si>
+    <t>3AoniOmUz4lG1cUK7ONabA</t>
+  </si>
+  <si>
+    <t>2zBkbSw81bCTHQgTi8aIvU</t>
+  </si>
+  <si>
+    <t>67I9SfpeK4qIsYsm3IH6ZR</t>
+  </si>
+  <si>
+    <t>1X1RI6urmmvDyuhbxt7Voi</t>
+  </si>
+  <si>
+    <t>4Pp4ztjrbtNildMEMXNhrB</t>
+  </si>
+  <si>
+    <t>5TnJegyHFeKItomynKmc40</t>
+  </si>
+  <si>
+    <t>2Co6uGUU9v5hkYThWsb8zT</t>
+  </si>
+  <si>
+    <t>2G2YzndIA6jeWFPBXhUjh5</t>
+  </si>
+  <si>
+    <t>6e2L6V6bKLWq81yzyrCC4r</t>
+  </si>
+  <si>
+    <t>18PwvX64MX1RAYqdSPokMr</t>
+  </si>
+  <si>
+    <t>6ZkVGDZSgoGSvBA4LUzzaW</t>
+  </si>
+  <si>
+    <t>6Ju28M6P8Y8sLjBgWjyUUD</t>
+  </si>
+  <si>
+    <t>6IuAM96PLqLphCtKAPMUP0</t>
+  </si>
+  <si>
+    <t>2GFExyKXf9383tSRSrEHEt</t>
+  </si>
+  <si>
+    <t>3UObpfextMmFX50qmzooER</t>
+  </si>
+  <si>
+    <t>0RyyGvF8j3pDpXPVrHhAda</t>
+  </si>
+  <si>
+    <t>1xShPgQbOUa98avWJQFDBY</t>
+  </si>
+  <si>
+    <t>77oU2rjC5XbjQfNe3bD6so</t>
+  </si>
+  <si>
     <t>Other</t>
   </si>
   <si>
@@ -280,6 +769,15 @@
     <t>Outdoor</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>Pleased</t>
   </si>
   <si>
@@ -301,16 +799,25 @@
     <t>Excited</t>
   </si>
   <si>
-    <t>Evening (6pm - 12am)</t>
-  </si>
-  <si>
-    <t>Morning (6am - 12pm)</t>
-  </si>
-  <si>
-    <t>Afternoon (12pm - 6pm)</t>
-  </si>
-  <si>
-    <t>Night (12am - 6am)</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>calm</t>
+  </si>
+  <si>
+    <t>relaxed</t>
+  </si>
+  <si>
+    <t>evening</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>afternoon</t>
+  </si>
+  <si>
+    <t>night</t>
   </si>
   <si>
     <t>2019-04-25</t>
@@ -373,6 +880,12 @@
     <t>2018-10-12</t>
   </si>
   <si>
+    <t>2006-01-01</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
     <t>1999-04-26</t>
   </si>
   <si>
@@ -400,6 +913,192 @@
     <t>2019-01-06</t>
   </si>
   <si>
+    <t>2018-02-15</t>
+  </si>
+  <si>
+    <t>2011-01-02</t>
+  </si>
+  <si>
+    <t>2006-12-31</t>
+  </si>
+  <si>
+    <t>2019-11-12</t>
+  </si>
+  <si>
+    <t>2017-06-27</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>2014-07-14</t>
+  </si>
+  <si>
+    <t>2010-03-23</t>
+  </si>
+  <si>
+    <t>2015-05-14</t>
+  </si>
+  <si>
+    <t>2018-04-26</t>
+  </si>
+  <si>
+    <t>2019-05-21</t>
+  </si>
+  <si>
+    <t>1986-01-29</t>
+  </si>
+  <si>
+    <t>2018-12-28</t>
+  </si>
+  <si>
+    <t>1992-04-06</t>
+  </si>
+  <si>
+    <t>2007-07-26</t>
+  </si>
+  <si>
+    <t>2010-12-02</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992-10-06</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2008-07-31</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>2018-03-02</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2018-06-15</t>
+  </si>
+  <si>
+    <t>2012-09-18</t>
+  </si>
+  <si>
+    <t>2007-02-20</t>
+  </si>
+  <si>
+    <t>2013-08-30</t>
+  </si>
+  <si>
+    <t>2013-01-01</t>
+  </si>
+  <si>
+    <t>2013-11-25</t>
+  </si>
+  <si>
+    <t>2013-02-24</t>
+  </si>
+  <si>
+    <t>2017-11-15</t>
+  </si>
+  <si>
+    <t>2008-01-01</t>
+  </si>
+  <si>
+    <t>2017-06-02</t>
+  </si>
+  <si>
+    <t>2006-10-24</t>
+  </si>
+  <si>
+    <t>2014-09-21</t>
+  </si>
+  <si>
+    <t>1992-12-01</t>
+  </si>
+  <si>
+    <t>1987-09</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2014-02-20</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2011-08-24</t>
+  </si>
+  <si>
+    <t>2014-08-04</t>
+  </si>
+  <si>
+    <t>2018-07-27</t>
+  </si>
+  <si>
+    <t>1974-01</t>
+  </si>
+  <si>
+    <t>2010-10-18</t>
+  </si>
+  <si>
+    <t>2010-10-30</t>
+  </si>
+  <si>
+    <t>2015-08-28</t>
+  </si>
+  <si>
+    <t>2007-09-20</t>
+  </si>
+  <si>
+    <t>2005-08-19</t>
+  </si>
+  <si>
+    <t>2019-05-03</t>
+  </si>
+  <si>
+    <t>2011-02-22</t>
+  </si>
+  <si>
+    <t>2005-02-14</t>
+  </si>
+  <si>
+    <t>2019-01-25</t>
+  </si>
+  <si>
+    <t>2019-09-13</t>
+  </si>
+  <si>
+    <t>2018-06-29</t>
+  </si>
+  <si>
+    <t>2020-01-24</t>
+  </si>
+  <si>
+    <t>1998-08-25</t>
+  </si>
+  <si>
+    <t>2011-09-16</t>
+  </si>
+  <si>
+    <t>2012-02-17</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1978-06-09</t>
+  </si>
+  <si>
     <t>My Angel (Piano Theme 2019)</t>
   </si>
   <si>
@@ -439,12 +1138,18 @@
     <t>The Silence</t>
   </si>
   <si>
+    <t>Ocean</t>
+  </si>
+  <si>
     <t>Freestate - 2007 Remastered Version</t>
   </si>
   <si>
     <t>Treasure</t>
   </si>
   <si>
+    <t>Tired-Live</t>
+  </si>
+  <si>
     <t>Radioactive: Imagine Dragons (Pop-Punk)</t>
   </si>
   <si>
@@ -460,6 +1165,12 @@
     <t>I'm Still Here</t>
   </si>
   <si>
+    <t>Back To Black</t>
+  </si>
+  <si>
+    <t>This Is The Life</t>
+  </si>
+  <si>
     <t>Lacrimosa</t>
   </si>
   <si>
@@ -485,6 +1196,312 @@
   </si>
   <si>
     <t>Calma - (Pedro Capó By Napy Remix)</t>
+  </si>
+  <si>
+    <t>To Zitianoksylo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eixa Ton Kipo tis Edem</t>
+  </si>
+  <si>
+    <t>I Kalyva</t>
+  </si>
+  <si>
+    <t>Skepsi Mou Ksimeromeni</t>
+  </si>
+  <si>
+    <t>Kartes</t>
+  </si>
+  <si>
+    <t>I Lathos Moirasia</t>
+  </si>
+  <si>
+    <t>San Paidi</t>
+  </si>
+  <si>
+    <t>Aeriko - Remastered</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Poios Tha Mai Thymatai</t>
+  </si>
+  <si>
+    <t>Ta logia einai grammata</t>
+  </si>
+  <si>
+    <t>Min Ta Paratas</t>
+  </si>
+  <si>
+    <t>Tha 'mai Konta Sou (Otan Me Thes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To Kapileio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ta Aneipota</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Den Tha Dakryso Pia Gia Sena</t>
+  </si>
+  <si>
+    <t>Stigmes</t>
+  </si>
+  <si>
+    <t>Tyfles Elpides</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oneiro Apatilo</t>
+  </si>
+  <si>
+    <t>O Amlet Tis Selinis - Live</t>
+  </si>
+  <si>
+    <t>Exotiko Harmani</t>
+  </si>
+  <si>
+    <t>Ta Ziliarika Sou Matia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kopse Kai Moirase</t>
+  </si>
+  <si>
+    <t>Omorfi Zoi</t>
+  </si>
+  <si>
+    <t>To Filaraki</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kai Ti Zitao</t>
+  </si>
+  <si>
+    <t>Asfalos Kai Den Prepei</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Perasi Apo Do I Eleni</t>
+  </si>
+  <si>
+    <t>S' Anazito Sti Saloniki</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To Flasaki</t>
+  </si>
+  <si>
+    <t>Thessaloniki</t>
+  </si>
+  <si>
+    <t>To Metrima</t>
+  </si>
+  <si>
+    <t>Kardia Mou Ego</t>
+  </si>
+  <si>
+    <t>An Isoun Aggelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ksimeronei</t>
+  </si>
+  <si>
+    <t>I Serenata</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tha Spaso Koupes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mikres Notheies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enas Kompos I Xara Mou</t>
+  </si>
+  <si>
+    <t>Katse Kala</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Na M' Agapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vrexei Sti Ftoxogeitonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deytera Kleidia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stin Agora Tou Al Halili</t>
+  </si>
+  <si>
+    <t>To Tango Tis Nefelis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pou Na Vro Mia Na Sou Moiazei</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Paramythi Me Lypimeno Telos</t>
+  </si>
+  <si>
+    <t>To Koritsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prigripesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Karavia Sti Steria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sou Milo Kai Kokkinizeis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Touto To Mina</t>
+  </si>
+  <si>
+    <t>Sto Kastro To Palio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Na Grafeis Na Tilefoneis</t>
+  </si>
+  <si>
+    <t>Guilty As Charged</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Always With Me</t>
+  </si>
+  <si>
+    <t>Hard Times</t>
+  </si>
+  <si>
+    <t>Blues So Bad</t>
+  </si>
+  <si>
+    <t>I'm Freakin' Reloaded</t>
+  </si>
+  <si>
+    <t>Drivin' Wheel</t>
+  </si>
+  <si>
+    <t>Dark Angel (feat. Kevin Gates)</t>
+  </si>
+  <si>
+    <t>Stand Beside Me</t>
+  </si>
+  <si>
+    <t>All on Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Blues Inside</t>
+  </si>
+  <si>
+    <t>Midnight's Creeping</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Angie (Live)</t>
+  </si>
+  <si>
+    <t>Cocaine Blues - Live</t>
+  </si>
+  <si>
+    <t>Jungle Strut</t>
+  </si>
+  <si>
+    <t>Tried, Tested and True</t>
+  </si>
+  <si>
+    <t>Going, Going, Gone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This Is Just What It Is</t>
+  </si>
+  <si>
+    <t>Sometimes I Feel Like a Motherless Child</t>
+  </si>
+  <si>
+    <t>All Blues Hail Mary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Never Ending Friday</t>
+  </si>
+  <si>
+    <t>Baby's Got Another Lover</t>
+  </si>
+  <si>
+    <t>Good Night's Sleep</t>
+  </si>
+  <si>
+    <t>Standing On Shakey Ground</t>
+  </si>
+  <si>
+    <t>Christmas Time Blues</t>
+  </si>
+  <si>
+    <t>Guitar Pickin' Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Latino Pressuro Bambino</t>
+  </si>
+  <si>
+    <t>Gloria - Live</t>
+  </si>
+  <si>
+    <t>Black Magic Woman</t>
+  </si>
+  <si>
+    <t>Heart of Stone</t>
+  </si>
+  <si>
+    <t>Smoking Gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Babylon</t>
+  </si>
+  <si>
+    <t>The Thrill Is Gone</t>
+  </si>
+  <si>
+    <t>Don't Be Shy</t>
+  </si>
+  <si>
+    <t>Did You Ever Feel Lonely?</t>
+  </si>
+  <si>
+    <t>Sabotage State of Mind</t>
+  </si>
+  <si>
+    <t>Be My Baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KISS OF FIRE</t>
+  </si>
+  <si>
+    <t>A Rockin' Good Way (To Mess Around And Fall In Love)</t>
+  </si>
+  <si>
+    <t>Wrong Vibration</t>
+  </si>
+  <si>
+    <t>Let You Know - Robin Hannibal Rework</t>
+  </si>
+  <si>
+    <t>Hunger</t>
+  </si>
+  <si>
+    <t>Le vent nous portera - Live à Radio Popolare, Milan / 2002</t>
+  </si>
+  <si>
+    <t>Can't Take My Eyes Off of You</t>
+  </si>
+  <si>
+    <t>Goodbye Kiss</t>
+  </si>
+  <si>
+    <t>This Fire of Autumn</t>
+  </si>
+  <si>
+    <t>Personal Jesus - Original Seven Inch Version</t>
+  </si>
+  <si>
+    <t>Beast Of Burden - Remastered</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I BELIEVE</t>
   </si>
 </sst>
 </file>
@@ -842,7 +1859,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -927,7 +1944,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>0.517</v>
@@ -936,10 +1953,10 @@
         <v>0.671</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="J2">
         <v>0.392</v>
@@ -948,25 +1965,25 @@
         <v>0.0974</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>247</v>
       </c>
       <c r="M2">
         <v>-10.072</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>254</v>
       </c>
       <c r="O2" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="P2">
         <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>99</v>
+        <v>268</v>
       </c>
       <c r="R2" t="s">
-        <v>128</v>
+        <v>361</v>
       </c>
       <c r="S2">
         <v>0.0279</v>
@@ -995,7 +2012,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>0.544</v>
@@ -1004,10 +2021,10 @@
         <v>0.463</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1016,25 +2033,25 @@
         <v>0.07480000000000001</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>248</v>
       </c>
       <c r="M3">
         <v>-6.832</v>
       </c>
       <c r="N3" t="s">
-        <v>88</v>
+        <v>254</v>
       </c>
       <c r="O3" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="P3">
         <v>43</v>
       </c>
       <c r="Q3" t="s">
-        <v>100</v>
+        <v>269</v>
       </c>
       <c r="R3" t="s">
-        <v>129</v>
+        <v>362</v>
       </c>
       <c r="S3">
         <v>0.0294</v>
@@ -1063,7 +2080,7 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F4">
         <v>0.553</v>
@@ -1072,10 +2089,10 @@
         <v>0.528</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="J4">
         <v>0.00108</v>
@@ -1084,25 +2101,25 @@
         <v>0.104</v>
       </c>
       <c r="L4" t="s">
-        <v>85</v>
+        <v>248</v>
       </c>
       <c r="M4">
         <v>-12.852</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>254</v>
       </c>
       <c r="O4" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="P4">
         <v>33</v>
       </c>
       <c r="Q4" t="s">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="R4" t="s">
-        <v>130</v>
+        <v>363</v>
       </c>
       <c r="S4">
         <v>0.0306</v>
@@ -1131,7 +2148,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>0.649</v>
@@ -1140,10 +2157,10 @@
         <v>0.716</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="J5">
         <v>2.63e-05</v>
@@ -1152,25 +2169,25 @@
         <v>0.135</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>248</v>
       </c>
       <c r="M5">
         <v>-5.371</v>
       </c>
       <c r="N5" t="s">
-        <v>89</v>
+        <v>255</v>
       </c>
       <c r="O5" t="s">
-        <v>96</v>
+        <v>265</v>
       </c>
       <c r="P5">
         <v>80</v>
       </c>
       <c r="Q5" t="s">
-        <v>102</v>
+        <v>271</v>
       </c>
       <c r="R5" t="s">
-        <v>131</v>
+        <v>364</v>
       </c>
       <c r="S5">
         <v>0.0349</v>
@@ -1199,7 +2216,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>0.516</v>
@@ -1208,10 +2225,10 @@
         <v>0.595</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1220,25 +2237,25 @@
         <v>0.109</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>248</v>
       </c>
       <c r="M6">
         <v>-4.63</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>255</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>265</v>
       </c>
       <c r="P6">
         <v>78</v>
       </c>
       <c r="Q6" t="s">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="R6" t="s">
-        <v>132</v>
+        <v>365</v>
       </c>
       <c r="S6">
         <v>0.0313</v>
@@ -1267,7 +2284,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7">
         <v>0.459</v>
@@ -1276,10 +2293,10 @@
         <v>0.545</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1288,25 +2305,25 @@
         <v>0.105</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>248</v>
       </c>
       <c r="M7">
         <v>-4.874</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>255</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>265</v>
       </c>
       <c r="P7">
         <v>60</v>
       </c>
       <c r="Q7" t="s">
-        <v>104</v>
+        <v>273</v>
       </c>
       <c r="R7" t="s">
-        <v>133</v>
+        <v>366</v>
       </c>
       <c r="S7">
         <v>0.0282</v>
@@ -1335,7 +2352,7 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8">
         <v>0.478</v>
@@ -1344,10 +2361,10 @@
         <v>0.633</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1356,25 +2373,25 @@
         <v>0.41</v>
       </c>
       <c r="L8" t="s">
-        <v>85</v>
+        <v>248</v>
       </c>
       <c r="M8">
         <v>-6.19</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>255</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>266</v>
       </c>
       <c r="P8">
         <v>67</v>
       </c>
       <c r="Q8" t="s">
-        <v>105</v>
+        <v>274</v>
       </c>
       <c r="R8" t="s">
-        <v>134</v>
+        <v>367</v>
       </c>
       <c r="S8">
         <v>0.0345</v>
@@ -1403,7 +2420,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F9">
         <v>0.645</v>
@@ -1412,10 +2429,10 @@
         <v>0.787</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="J9">
         <v>0.513</v>
@@ -1424,25 +2441,25 @@
         <v>0.341</v>
       </c>
       <c r="L9" t="s">
-        <v>85</v>
+        <v>248</v>
       </c>
       <c r="M9">
         <v>-4.707</v>
       </c>
       <c r="N9" t="s">
-        <v>89</v>
+        <v>255</v>
       </c>
       <c r="O9" t="s">
-        <v>97</v>
+        <v>266</v>
       </c>
       <c r="P9">
         <v>54</v>
       </c>
       <c r="Q9" t="s">
-        <v>106</v>
+        <v>275</v>
       </c>
       <c r="R9" t="s">
-        <v>135</v>
+        <v>368</v>
       </c>
       <c r="S9">
         <v>0.0274</v>
@@ -1471,7 +2488,7 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10">
         <v>0.517</v>
@@ -1480,10 +2497,10 @@
         <v>0.671</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="J10">
         <v>0.392</v>
@@ -1492,25 +2509,25 @@
         <v>0.0974</v>
       </c>
       <c r="L10" t="s">
-        <v>85</v>
+        <v>248</v>
       </c>
       <c r="M10">
         <v>-10.072</v>
       </c>
       <c r="N10" t="s">
-        <v>90</v>
+        <v>256</v>
       </c>
       <c r="O10" t="s">
-        <v>97</v>
+        <v>266</v>
       </c>
       <c r="P10">
         <v>19</v>
       </c>
       <c r="Q10" t="s">
-        <v>99</v>
+        <v>268</v>
       </c>
       <c r="R10" t="s">
-        <v>128</v>
+        <v>361</v>
       </c>
       <c r="S10">
         <v>0.0279</v>
@@ -1539,7 +2556,7 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11">
         <v>0.441</v>
@@ -1548,10 +2565,10 @@
         <v>0.664</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="J11">
         <v>1e-05</v>
@@ -1560,25 +2577,25 @@
         <v>0.141</v>
       </c>
       <c r="L11" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="M11">
         <v>-8.958</v>
       </c>
       <c r="N11" t="s">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c r="O11" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="P11">
         <v>31</v>
       </c>
       <c r="Q11" t="s">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c r="R11" t="s">
-        <v>136</v>
+        <v>369</v>
       </c>
       <c r="S11">
         <v>0.0424</v>
@@ -1607,7 +2624,7 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12">
         <v>0.543</v>
@@ -1616,10 +2633,10 @@
         <v>0.619</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="J12">
         <v>0.000146</v>
@@ -1628,25 +2645,25 @@
         <v>0.0241</v>
       </c>
       <c r="L12" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="M12">
         <v>-7.689</v>
       </c>
       <c r="N12" t="s">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c r="O12" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="P12">
         <v>28</v>
       </c>
       <c r="Q12" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="R12" t="s">
-        <v>137</v>
+        <v>370</v>
       </c>
       <c r="S12">
         <v>0.0271</v>
@@ -1675,7 +2692,7 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <v>0.554</v>
@@ -1684,10 +2701,10 @@
         <v>0.585</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="J13">
         <v>0.874</v>
@@ -1696,25 +2713,25 @@
         <v>0.114</v>
       </c>
       <c r="L13" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="M13">
         <v>-8.571</v>
       </c>
       <c r="N13" t="s">
-        <v>89</v>
+        <v>255</v>
       </c>
       <c r="O13" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="P13">
         <v>4</v>
       </c>
       <c r="Q13" t="s">
-        <v>109</v>
+        <v>278</v>
       </c>
       <c r="R13" t="s">
-        <v>138</v>
+        <v>371</v>
       </c>
       <c r="S13">
         <v>0.027</v>
@@ -1743,7 +2760,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <v>0.572</v>
@@ -1752,10 +2769,10 @@
         <v>0.653</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="J14">
         <v>0.656</v>
@@ -1764,25 +2781,25 @@
         <v>0.101</v>
       </c>
       <c r="L14" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="M14">
         <v>-12.11</v>
       </c>
       <c r="N14" t="s">
-        <v>89</v>
+        <v>255</v>
       </c>
       <c r="O14" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="P14">
         <v>35</v>
       </c>
       <c r="Q14" t="s">
-        <v>110</v>
+        <v>279</v>
       </c>
       <c r="R14" t="s">
-        <v>139</v>
+        <v>372</v>
       </c>
       <c r="S14">
         <v>0.0251</v>
@@ -1811,7 +2828,7 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15">
         <v>0.451</v>
@@ -1820,10 +2837,10 @@
         <v>0.355</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="J15">
         <v>0.407</v>
@@ -1832,25 +2849,25 @@
         <v>0.104</v>
       </c>
       <c r="L15" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="M15">
         <v>-8.484</v>
       </c>
       <c r="N15" t="s">
-        <v>92</v>
+        <v>258</v>
       </c>
       <c r="O15" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="P15">
         <v>54</v>
       </c>
       <c r="Q15" t="s">
-        <v>111</v>
+        <v>280</v>
       </c>
       <c r="R15" t="s">
-        <v>140</v>
+        <v>373</v>
       </c>
       <c r="S15">
         <v>0.0263</v>
@@ -1875,17 +2892,23 @@
       <c r="D16">
         <v>44</v>
       </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="N16" t="s">
-        <v>90</v>
+        <v>256</v>
       </c>
       <c r="O16" t="s">
-        <v>96</v>
+        <v>265</v>
+      </c>
+      <c r="R16" t="s">
+        <v>374</v>
       </c>
       <c r="U16">
         <v>1</v>
@@ -1905,7 +2928,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17">
         <v>0.62</v>
@@ -1914,10 +2937,10 @@
         <v>0.767</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="J17">
         <v>0.0136</v>
@@ -1926,25 +2949,25 @@
         <v>0.106</v>
       </c>
       <c r="L17" t="s">
-        <v>85</v>
+        <v>248</v>
       </c>
       <c r="M17">
         <v>-8.16</v>
       </c>
       <c r="N17" t="s">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c r="O17" t="s">
-        <v>97</v>
+        <v>266</v>
       </c>
       <c r="P17">
         <v>26</v>
       </c>
       <c r="Q17" t="s">
-        <v>112</v>
+        <v>281</v>
       </c>
       <c r="R17" t="s">
-        <v>141</v>
+        <v>375</v>
       </c>
       <c r="S17">
         <v>0.0287</v>
@@ -1973,7 +2996,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F18">
         <v>0.538</v>
@@ -1982,10 +3005,10 @@
         <v>0.788</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="J18">
         <v>0.237</v>
@@ -1994,25 +3017,25 @@
         <v>0.217</v>
       </c>
       <c r="L18" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="M18">
         <v>-6.078</v>
       </c>
       <c r="N18" t="s">
-        <v>92</v>
+        <v>258</v>
       </c>
       <c r="O18" t="s">
-        <v>97</v>
+        <v>266</v>
       </c>
       <c r="P18">
         <v>31</v>
       </c>
       <c r="Q18" t="s">
-        <v>113</v>
+        <v>282</v>
       </c>
       <c r="R18" t="s">
-        <v>142</v>
+        <v>376</v>
       </c>
       <c r="S18">
         <v>0.0269</v>
@@ -2037,17 +3060,23 @@
       <c r="D19">
         <v>44</v>
       </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="N19" t="s">
-        <v>92</v>
+        <v>258</v>
       </c>
       <c r="O19" t="s">
-        <v>97</v>
+        <v>266</v>
+      </c>
+      <c r="R19" t="s">
+        <v>377</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -2067,7 +3096,7 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F20">
         <v>0.486</v>
@@ -2076,10 +3105,10 @@
         <v>0.902</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2088,25 +3117,25 @@
         <v>0.138</v>
       </c>
       <c r="L20" t="s">
-        <v>87</v>
+        <v>250</v>
       </c>
       <c r="M20">
         <v>-3.017</v>
       </c>
       <c r="N20" t="s">
-        <v>88</v>
+        <v>254</v>
       </c>
       <c r="O20" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="P20">
         <v>19</v>
       </c>
       <c r="Q20" t="s">
-        <v>114</v>
+        <v>283</v>
       </c>
       <c r="R20" t="s">
-        <v>143</v>
+        <v>378</v>
       </c>
       <c r="S20">
         <v>0.0461</v>
@@ -2135,7 +3164,7 @@
         <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F21">
         <v>0.548</v>
@@ -2144,10 +3173,10 @@
         <v>0.496</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I21" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="J21">
         <v>0.135</v>
@@ -2156,25 +3185,25 @@
         <v>0.321</v>
       </c>
       <c r="L21" t="s">
-        <v>87</v>
+        <v>250</v>
       </c>
       <c r="M21">
         <v>-13.466</v>
       </c>
       <c r="N21" t="s">
-        <v>88</v>
+        <v>254</v>
       </c>
       <c r="O21" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="P21">
         <v>47</v>
       </c>
       <c r="Q21" t="s">
-        <v>115</v>
+        <v>284</v>
       </c>
       <c r="R21" t="s">
-        <v>144</v>
+        <v>379</v>
       </c>
       <c r="S21">
         <v>0.0355</v>
@@ -2203,7 +3232,7 @@
         <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F22">
         <v>0.457</v>
@@ -2212,10 +3241,10 @@
         <v>0.434</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I22" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="J22">
         <v>0.00552</v>
@@ -2224,25 +3253,25 @@
         <v>0.123</v>
       </c>
       <c r="L22" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="M22">
         <v>-10.445</v>
       </c>
       <c r="N22" t="s">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c r="O22" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="P22">
         <v>50</v>
       </c>
       <c r="Q22" t="s">
-        <v>116</v>
+        <v>285</v>
       </c>
       <c r="R22" t="s">
-        <v>145</v>
+        <v>380</v>
       </c>
       <c r="S22">
         <v>0.0366</v>
@@ -2271,7 +3300,7 @@
         <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F23">
         <v>0.351</v>
@@ -2280,10 +3309,10 @@
         <v>0.498</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="J23">
         <v>0.00516</v>
@@ -2292,25 +3321,25 @@
         <v>0.661</v>
       </c>
       <c r="L23" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="M23">
         <v>-9.568</v>
       </c>
       <c r="N23" t="s">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c r="O23" t="s">
-        <v>96</v>
+        <v>265</v>
       </c>
       <c r="P23">
         <v>36</v>
       </c>
       <c r="Q23" t="s">
-        <v>117</v>
+        <v>286</v>
       </c>
       <c r="R23" t="s">
-        <v>146</v>
+        <v>381</v>
       </c>
       <c r="S23">
         <v>0.0311</v>
@@ -2339,7 +3368,7 @@
         <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F24">
         <v>0.437</v>
@@ -2348,10 +3377,10 @@
         <v>0.719</v>
       </c>
       <c r="H24" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I24" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="J24">
         <v>3.86e-05</v>
@@ -2360,25 +3389,25 @@
         <v>0.0765</v>
       </c>
       <c r="L24" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="M24">
         <v>-4.569</v>
       </c>
       <c r="N24" t="s">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c r="O24" t="s">
-        <v>96</v>
+        <v>265</v>
       </c>
       <c r="P24">
         <v>60</v>
       </c>
       <c r="Q24" t="s">
-        <v>118</v>
+        <v>287</v>
       </c>
       <c r="R24" t="s">
-        <v>147</v>
+        <v>382</v>
       </c>
       <c r="S24">
         <v>0.0376</v>
@@ -2398,67 +3427,67 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.964</v>
+        <v>0.123</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F25">
-        <v>0.0847</v>
+        <v>0.49</v>
       </c>
       <c r="G25">
-        <v>0.0856</v>
+        <v>0.725</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="I25" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="J25">
-        <v>0.592</v>
+        <v>2.68e-05</v>
       </c>
       <c r="K25">
-        <v>0.289</v>
+        <v>0.0983</v>
       </c>
       <c r="L25" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="M25">
-        <v>-24.716</v>
+        <v>-3.304</v>
       </c>
       <c r="N25" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="O25" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="P25">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="Q25" t="s">
-        <v>119</v>
+        <v>288</v>
       </c>
       <c r="R25" t="s">
-        <v>148</v>
+        <v>383</v>
       </c>
       <c r="S25">
-        <v>0.0405</v>
+        <v>0.0392</v>
       </c>
       <c r="T25">
-        <v>84.245</v>
+        <v>123.28</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>0.0764</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2466,67 +3495,67 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9</v>
+        <v>0.266</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F26">
-        <v>0.173</v>
+        <v>0.616</v>
       </c>
       <c r="G26">
-        <v>0.259</v>
+        <v>0.884</v>
       </c>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="I26" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="J26">
-        <v>0.931</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>0.414</v>
+        <v>0.06569999999999999</v>
       </c>
       <c r="L26" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="M26">
-        <v>-12.994</v>
+        <v>-5.043</v>
       </c>
       <c r="N26" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="O26" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q26" t="s">
-        <v>120</v>
+        <v>289</v>
       </c>
       <c r="R26" t="s">
-        <v>149</v>
+        <v>384</v>
       </c>
       <c r="S26">
-        <v>0.0362</v>
+        <v>0.0317</v>
       </c>
       <c r="T26">
-        <v>118.87</v>
+        <v>94.979</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>0.079</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2534,7 +3563,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.00109</v>
+        <v>0.964</v>
       </c>
       <c r="C27" t="s">
         <v>21</v>
@@ -2543,58 +3572,58 @@
         <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F27">
-        <v>0.465</v>
+        <v>0.0847</v>
       </c>
       <c r="G27">
-        <v>0.844</v>
+        <v>0.0856</v>
       </c>
       <c r="H27" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="I27" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="J27">
-        <v>0.399</v>
+        <v>0.592</v>
       </c>
       <c r="K27">
-        <v>0.08649999999999999</v>
+        <v>0.289</v>
       </c>
       <c r="L27" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="M27">
-        <v>-4.352</v>
+        <v>-24.716</v>
       </c>
       <c r="N27" t="s">
-        <v>93</v>
+        <v>259</v>
       </c>
       <c r="O27" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="P27">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="Q27" t="s">
-        <v>121</v>
+        <v>290</v>
       </c>
       <c r="R27" t="s">
-        <v>150</v>
+        <v>385</v>
       </c>
       <c r="S27">
-        <v>0.0379</v>
+        <v>0.0405</v>
       </c>
       <c r="T27">
-        <v>170.358</v>
+        <v>84.245</v>
       </c>
       <c r="U27">
         <v>2</v>
       </c>
       <c r="V27">
-        <v>0.155</v>
+        <v>0.0764</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2602,7 +3631,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.857</v>
+        <v>0.9</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
@@ -2611,58 +3640,58 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F28">
-        <v>0.543</v>
+        <v>0.173</v>
       </c>
       <c r="G28">
-        <v>0.311</v>
+        <v>0.259</v>
       </c>
       <c r="H28" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="I28" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="J28">
-        <v>0.000684</v>
+        <v>0.931</v>
       </c>
       <c r="K28">
-        <v>0.0983</v>
+        <v>0.414</v>
       </c>
       <c r="L28" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="M28">
-        <v>-10.018</v>
+        <v>-12.994</v>
       </c>
       <c r="N28" t="s">
-        <v>93</v>
+        <v>259</v>
       </c>
       <c r="O28" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="P28">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>122</v>
+        <v>291</v>
       </c>
       <c r="R28" t="s">
-        <v>151</v>
+        <v>386</v>
       </c>
       <c r="S28">
-        <v>0.0361</v>
+        <v>0.0362</v>
       </c>
       <c r="T28">
-        <v>126.86</v>
+        <v>118.87</v>
       </c>
       <c r="U28">
         <v>2</v>
       </c>
       <c r="V28">
-        <v>0.134</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2670,67 +3699,67 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.273</v>
+        <v>0.00109</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D29">
         <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F29">
-        <v>0.506</v>
+        <v>0.465</v>
       </c>
       <c r="G29">
-        <v>0.323</v>
+        <v>0.844</v>
       </c>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="I29" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="J29">
-        <v>0.916</v>
+        <v>0.399</v>
       </c>
       <c r="K29">
-        <v>0.0788</v>
+        <v>0.08649999999999999</v>
       </c>
       <c r="L29" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="M29">
-        <v>-12.19</v>
+        <v>-4.352</v>
       </c>
       <c r="N29" t="s">
-        <v>92</v>
+        <v>259</v>
       </c>
       <c r="O29" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="P29">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="Q29" t="s">
-        <v>123</v>
+        <v>292</v>
       </c>
       <c r="R29" t="s">
-        <v>152</v>
+        <v>387</v>
       </c>
       <c r="S29">
-        <v>0.0295</v>
+        <v>0.0379</v>
       </c>
       <c r="T29">
-        <v>90.035</v>
+        <v>170.358</v>
       </c>
       <c r="U29">
         <v>2</v>
       </c>
       <c r="V29">
-        <v>0.0368</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2738,67 +3767,67 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.848</v>
+        <v>0.857</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D30">
         <v>27</v>
       </c>
       <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30">
+        <v>0.543</v>
+      </c>
+      <c r="G30">
+        <v>0.311</v>
+      </c>
+      <c r="H30" t="s">
+        <v>147</v>
+      </c>
+      <c r="I30" t="s">
+        <v>174</v>
+      </c>
+      <c r="J30">
+        <v>0.000684</v>
+      </c>
+      <c r="K30">
+        <v>0.0983</v>
+      </c>
+      <c r="L30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M30">
+        <v>-10.018</v>
+      </c>
+      <c r="N30" t="s">
+        <v>259</v>
+      </c>
+      <c r="O30" t="s">
+        <v>264</v>
+      </c>
+      <c r="P30">
         <v>49</v>
       </c>
-      <c r="F30">
-        <v>0.497</v>
-      </c>
-      <c r="G30">
-        <v>0.425</v>
-      </c>
-      <c r="H30" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" t="s">
-        <v>80</v>
-      </c>
-      <c r="J30">
-        <v>0.121</v>
-      </c>
-      <c r="K30">
-        <v>0.126</v>
-      </c>
-      <c r="L30" t="s">
-        <v>86</v>
-      </c>
-      <c r="M30">
-        <v>-11.589</v>
-      </c>
-      <c r="N30" t="s">
-        <v>91</v>
-      </c>
-      <c r="O30" t="s">
-        <v>98</v>
-      </c>
-      <c r="P30">
-        <v>39</v>
-      </c>
       <c r="Q30" t="s">
-        <v>124</v>
+        <v>293</v>
       </c>
       <c r="R30" t="s">
-        <v>153</v>
+        <v>388</v>
       </c>
       <c r="S30">
-        <v>0.0265</v>
+        <v>0.0361</v>
       </c>
       <c r="T30">
-        <v>134.31</v>
+        <v>126.86</v>
       </c>
       <c r="U30">
         <v>2</v>
       </c>
       <c r="V30">
-        <v>0.156</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2806,67 +3835,67 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.0622</v>
+        <v>0.273</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F31">
-        <v>0.776</v>
+        <v>0.506</v>
       </c>
       <c r="G31">
-        <v>0.78</v>
+        <v>0.323</v>
       </c>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="I31" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>0.916</v>
       </c>
       <c r="K31">
-        <v>0.081</v>
+        <v>0.0788</v>
       </c>
       <c r="L31" t="s">
-        <v>87</v>
+        <v>249</v>
       </c>
       <c r="M31">
-        <v>-4.374</v>
+        <v>-12.19</v>
       </c>
       <c r="N31" t="s">
-        <v>94</v>
+        <v>258</v>
       </c>
       <c r="O31" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="P31">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="Q31" t="s">
-        <v>125</v>
+        <v>294</v>
       </c>
       <c r="R31" t="s">
-        <v>154</v>
+        <v>389</v>
       </c>
       <c r="S31">
-        <v>0.128</v>
+        <v>0.0295</v>
       </c>
       <c r="T31">
-        <v>124.949</v>
+        <v>90.035</v>
       </c>
       <c r="U31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>0.666</v>
+        <v>0.0368</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2874,67 +3903,67 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.778</v>
+        <v>0.848</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
       </c>
       <c r="D32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F32">
-        <v>0.606</v>
+        <v>0.497</v>
       </c>
       <c r="G32">
-        <v>0.294</v>
+        <v>0.425</v>
       </c>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="I32" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="J32">
-        <v>0.162</v>
+        <v>0.121</v>
       </c>
       <c r="K32">
-        <v>0.106</v>
+        <v>0.126</v>
       </c>
       <c r="L32" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="M32">
-        <v>-11.836</v>
+        <v>-11.589</v>
       </c>
       <c r="N32" t="s">
-        <v>89</v>
+        <v>257</v>
       </c>
       <c r="O32" t="s">
-        <v>98</v>
+        <v>267</v>
       </c>
       <c r="P32">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="Q32" t="s">
-        <v>126</v>
+        <v>295</v>
       </c>
       <c r="R32" t="s">
-        <v>155</v>
+        <v>390</v>
       </c>
       <c r="S32">
-        <v>0.0764</v>
+        <v>0.0265</v>
       </c>
       <c r="T32">
-        <v>76.083</v>
+        <v>134.31</v>
       </c>
       <c r="U32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>0.192</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2942,67 +3971,5947 @@
         <v>31</v>
       </c>
       <c r="B33">
+        <v>0.0622</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33">
+        <v>0.776</v>
+      </c>
+      <c r="G33">
+        <v>0.78</v>
+      </c>
+      <c r="H33" t="s">
+        <v>147</v>
+      </c>
+      <c r="I33" t="s">
+        <v>177</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0.081</v>
+      </c>
+      <c r="L33" t="s">
+        <v>250</v>
+      </c>
+      <c r="M33">
+        <v>-4.374</v>
+      </c>
+      <c r="N33" t="s">
+        <v>260</v>
+      </c>
+      <c r="O33" t="s">
+        <v>264</v>
+      </c>
+      <c r="P33">
+        <v>87</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>296</v>
+      </c>
+      <c r="R33" t="s">
+        <v>391</v>
+      </c>
+      <c r="S33">
+        <v>0.128</v>
+      </c>
+      <c r="T33">
+        <v>124.949</v>
+      </c>
+      <c r="U33">
+        <v>3</v>
+      </c>
+      <c r="V33">
+        <v>0.666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.778</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34">
+        <v>0.606</v>
+      </c>
+      <c r="G34">
+        <v>0.294</v>
+      </c>
+      <c r="H34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I34" t="s">
+        <v>178</v>
+      </c>
+      <c r="J34">
+        <v>0.162</v>
+      </c>
+      <c r="K34">
+        <v>0.106</v>
+      </c>
+      <c r="L34" t="s">
+        <v>249</v>
+      </c>
+      <c r="M34">
+        <v>-11.836</v>
+      </c>
+      <c r="N34" t="s">
+        <v>255</v>
+      </c>
+      <c r="O34" t="s">
+        <v>267</v>
+      </c>
+      <c r="P34">
+        <v>61</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>297</v>
+      </c>
+      <c r="R34" t="s">
+        <v>392</v>
+      </c>
+      <c r="S34">
+        <v>0.0764</v>
+      </c>
+      <c r="T34">
+        <v>76.083</v>
+      </c>
+      <c r="U34">
+        <v>3</v>
+      </c>
+      <c r="V34">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
         <v>0.00678</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>22</v>
       </c>
-      <c r="D33">
+      <c r="D35">
         <v>32</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35">
+        <v>0.853</v>
+      </c>
+      <c r="G35">
+        <v>0.541</v>
+      </c>
+      <c r="H35" t="s">
+        <v>146</v>
+      </c>
+      <c r="I35" t="s">
+        <v>179</v>
+      </c>
+      <c r="J35">
+        <v>0.000224</v>
+      </c>
+      <c r="K35">
+        <v>0.337</v>
+      </c>
+      <c r="L35" t="s">
+        <v>248</v>
+      </c>
+      <c r="M35">
+        <v>-10.229</v>
+      </c>
+      <c r="N35" t="s">
+        <v>260</v>
+      </c>
+      <c r="O35" t="s">
+        <v>266</v>
+      </c>
+      <c r="P35">
+        <v>29</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>298</v>
+      </c>
+      <c r="R35" t="s">
+        <v>393</v>
+      </c>
+      <c r="S35">
+        <v>0.115</v>
+      </c>
+      <c r="T35">
+        <v>124.001</v>
+      </c>
+      <c r="U35">
+        <v>4</v>
+      </c>
+      <c r="V35">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.705</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36">
+        <v>0.61</v>
+      </c>
+      <c r="G36">
+        <v>0.519</v>
+      </c>
+      <c r="H36" t="s">
+        <v>148</v>
+      </c>
+      <c r="I36" t="s">
+        <v>180</v>
+      </c>
+      <c r="J36">
+        <v>1.54e-05</v>
+      </c>
+      <c r="K36">
+        <v>0.0868</v>
+      </c>
+      <c r="L36" t="s">
+        <v>251</v>
+      </c>
+      <c r="M36">
+        <v>-9.618</v>
+      </c>
+      <c r="N36" t="s">
+        <v>261</v>
+      </c>
+      <c r="O36" t="s">
+        <v>267</v>
+      </c>
+      <c r="P36">
+        <v>26</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>299</v>
+      </c>
+      <c r="R36" t="s">
+        <v>394</v>
+      </c>
+      <c r="S36">
+        <v>0.0303</v>
+      </c>
+      <c r="T36">
+        <v>126.402</v>
+      </c>
+      <c r="U36">
+        <v>5</v>
+      </c>
+      <c r="V36">
+        <v>0.656</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <v>34</v>
+      </c>
+      <c r="E37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" t="s">
+        <v>148</v>
+      </c>
+      <c r="L37" t="s">
+        <v>251</v>
+      </c>
+      <c r="N37" t="s">
+        <v>261</v>
+      </c>
+      <c r="O37" t="s">
+        <v>267</v>
+      </c>
+      <c r="R37" t="s">
+        <v>395</v>
+      </c>
+      <c r="U37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.182</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38">
+        <v>34</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38">
+        <v>0.71</v>
+      </c>
+      <c r="G38">
+        <v>0.51</v>
+      </c>
+      <c r="H38" t="s">
+        <v>148</v>
+      </c>
+      <c r="I38" t="s">
+        <v>181</v>
+      </c>
+      <c r="J38">
+        <v>3.77e-05</v>
+      </c>
+      <c r="K38">
+        <v>0.11</v>
+      </c>
+      <c r="L38" t="s">
+        <v>251</v>
+      </c>
+      <c r="M38">
+        <v>-10.252</v>
+      </c>
+      <c r="N38" t="s">
+        <v>261</v>
+      </c>
+      <c r="O38" t="s">
+        <v>267</v>
+      </c>
+      <c r="P38">
+        <v>21</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>299</v>
+      </c>
+      <c r="R38" t="s">
+        <v>396</v>
+      </c>
+      <c r="S38">
+        <v>0.0244</v>
+      </c>
+      <c r="T38">
+        <v>101.904</v>
+      </c>
+      <c r="U38">
+        <v>5</v>
+      </c>
+      <c r="V38">
+        <v>0.762</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="G39">
+        <v>0.372</v>
+      </c>
+      <c r="H39" t="s">
+        <v>148</v>
+      </c>
+      <c r="I39" t="s">
+        <v>182</v>
+      </c>
+      <c r="J39">
+        <v>0.57</v>
+      </c>
+      <c r="K39">
+        <v>0.0852</v>
+      </c>
+      <c r="L39" t="s">
+        <v>251</v>
+      </c>
+      <c r="M39">
+        <v>-12.421</v>
+      </c>
+      <c r="N39" t="s">
+        <v>261</v>
+      </c>
+      <c r="O39" t="s">
+        <v>267</v>
+      </c>
+      <c r="P39">
+        <v>23</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>299</v>
+      </c>
+      <c r="R39" t="s">
+        <v>397</v>
+      </c>
+      <c r="S39">
+        <v>0.0299</v>
+      </c>
+      <c r="T39">
+        <v>118.165</v>
+      </c>
+      <c r="U39">
+        <v>5</v>
+      </c>
+      <c r="V39">
+        <v>0.323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.586</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40">
+        <v>34</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="G40">
+        <v>0.529</v>
+      </c>
+      <c r="H40" t="s">
+        <v>148</v>
+      </c>
+      <c r="I40" t="s">
+        <v>183</v>
+      </c>
+      <c r="J40">
+        <v>0.503</v>
+      </c>
+      <c r="K40">
+        <v>0.089</v>
+      </c>
+      <c r="L40" t="s">
+        <v>251</v>
+      </c>
+      <c r="M40">
+        <v>-10.984</v>
+      </c>
+      <c r="N40" t="s">
+        <v>261</v>
+      </c>
+      <c r="O40" t="s">
+        <v>267</v>
+      </c>
+      <c r="P40">
+        <v>14</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>299</v>
+      </c>
+      <c r="R40" t="s">
+        <v>398</v>
+      </c>
+      <c r="S40">
+        <v>0.0257</v>
+      </c>
+      <c r="T40">
+        <v>102.246</v>
+      </c>
+      <c r="U40">
+        <v>5</v>
+      </c>
+      <c r="V40">
+        <v>0.801</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.153</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41">
+        <v>34</v>
+      </c>
+      <c r="E41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41">
+        <v>0.577</v>
+      </c>
+      <c r="G41">
+        <v>0.501</v>
+      </c>
+      <c r="H41" t="s">
+        <v>148</v>
+      </c>
+      <c r="I41" t="s">
+        <v>184</v>
+      </c>
+      <c r="J41">
+        <v>0.0083</v>
+      </c>
+      <c r="K41">
+        <v>0.246</v>
+      </c>
+      <c r="L41" t="s">
+        <v>251</v>
+      </c>
+      <c r="M41">
+        <v>-9.851000000000001</v>
+      </c>
+      <c r="N41" t="s">
+        <v>261</v>
+      </c>
+      <c r="O41" t="s">
+        <v>267</v>
+      </c>
+      <c r="P41">
+        <v>13</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>299</v>
+      </c>
+      <c r="R41" t="s">
+        <v>399</v>
+      </c>
+      <c r="S41">
+        <v>0.029</v>
+      </c>
+      <c r="T41">
+        <v>133.496</v>
+      </c>
+      <c r="U41">
+        <v>5</v>
+      </c>
+      <c r="V41">
+        <v>0.701</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.751</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42">
+        <v>34</v>
+      </c>
+      <c r="E42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42">
+        <v>0.722</v>
+      </c>
+      <c r="G42">
+        <v>0.629</v>
+      </c>
+      <c r="H42" t="s">
+        <v>148</v>
+      </c>
+      <c r="I42" t="s">
+        <v>185</v>
+      </c>
+      <c r="J42">
+        <v>0.472</v>
+      </c>
+      <c r="K42">
+        <v>0.1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>251</v>
+      </c>
+      <c r="M42">
+        <v>-6.764</v>
+      </c>
+      <c r="N42" t="s">
+        <v>261</v>
+      </c>
+      <c r="O42" t="s">
+        <v>267</v>
+      </c>
+      <c r="P42">
+        <v>24</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>300</v>
+      </c>
+      <c r="R42" t="s">
+        <v>400</v>
+      </c>
+      <c r="S42">
+        <v>0.0247</v>
+      </c>
+      <c r="T42">
+        <v>106.025</v>
+      </c>
+      <c r="U42">
+        <v>5</v>
+      </c>
+      <c r="V42">
+        <v>0.5659999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43">
+        <v>34</v>
+      </c>
+      <c r="E43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43">
+        <v>0.605</v>
+      </c>
+      <c r="G43">
+        <v>0.176</v>
+      </c>
+      <c r="H43" t="s">
+        <v>148</v>
+      </c>
+      <c r="I43" t="s">
+        <v>186</v>
+      </c>
+      <c r="J43">
+        <v>0.299</v>
+      </c>
+      <c r="K43">
+        <v>0.106</v>
+      </c>
+      <c r="L43" t="s">
+        <v>251</v>
+      </c>
+      <c r="M43">
+        <v>-12.14</v>
+      </c>
+      <c r="N43" t="s">
+        <v>261</v>
+      </c>
+      <c r="O43" t="s">
+        <v>267</v>
+      </c>
+      <c r="P43">
+        <v>18</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>301</v>
+      </c>
+      <c r="R43" t="s">
+        <v>401</v>
+      </c>
+      <c r="S43">
+        <v>0.0306</v>
+      </c>
+      <c r="T43">
+        <v>92.855</v>
+      </c>
+      <c r="U43">
+        <v>5</v>
+      </c>
+      <c r="V43">
+        <v>0.136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44">
+        <v>34</v>
+      </c>
+      <c r="E44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" t="s">
+        <v>148</v>
+      </c>
+      <c r="L44" t="s">
+        <v>251</v>
+      </c>
+      <c r="N44" t="s">
+        <v>261</v>
+      </c>
+      <c r="O44" t="s">
+        <v>267</v>
+      </c>
+      <c r="R44" t="s">
+        <v>402</v>
+      </c>
+      <c r="U44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.665</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45">
+        <v>34</v>
+      </c>
+      <c r="E45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45">
+        <v>0.521</v>
+      </c>
+      <c r="G45">
+        <v>0.37</v>
+      </c>
+      <c r="H45" t="s">
+        <v>148</v>
+      </c>
+      <c r="I45" t="s">
+        <v>187</v>
+      </c>
+      <c r="J45">
+        <v>0.0172</v>
+      </c>
+      <c r="K45">
+        <v>0.281</v>
+      </c>
+      <c r="L45" t="s">
+        <v>251</v>
+      </c>
+      <c r="M45">
+        <v>-8.382</v>
+      </c>
+      <c r="N45" t="s">
+        <v>261</v>
+      </c>
+      <c r="O45" t="s">
+        <v>267</v>
+      </c>
+      <c r="P45">
+        <v>8</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>302</v>
+      </c>
+      <c r="R45" t="s">
+        <v>403</v>
+      </c>
+      <c r="S45">
+        <v>0.0286</v>
+      </c>
+      <c r="T45">
+        <v>112.173</v>
+      </c>
+      <c r="U45">
+        <v>5</v>
+      </c>
+      <c r="V45">
+        <v>0.479</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.101</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46">
+        <v>34</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46">
+        <v>0.751</v>
+      </c>
+      <c r="G46">
+        <v>0.781</v>
+      </c>
+      <c r="H46" t="s">
+        <v>148</v>
+      </c>
+      <c r="I46" t="s">
+        <v>188</v>
+      </c>
+      <c r="J46">
+        <v>1.63e-05</v>
+      </c>
+      <c r="K46">
+        <v>0.361</v>
+      </c>
+      <c r="L46" t="s">
+        <v>252</v>
+      </c>
+      <c r="M46">
+        <v>-6.702</v>
+      </c>
+      <c r="N46" t="s">
+        <v>262</v>
+      </c>
+      <c r="O46" t="s">
+        <v>265</v>
+      </c>
+      <c r="P46">
+        <v>6</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>303</v>
+      </c>
+      <c r="R46" t="s">
+        <v>404</v>
+      </c>
+      <c r="S46">
+        <v>0.0324</v>
+      </c>
+      <c r="T46">
+        <v>125.949</v>
+      </c>
+      <c r="U46">
+        <v>5</v>
+      </c>
+      <c r="V46">
+        <v>0.963</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.781</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47">
+        <v>34</v>
+      </c>
+      <c r="E47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47">
+        <v>0.606</v>
+      </c>
+      <c r="G47">
+        <v>0.298</v>
+      </c>
+      <c r="H47" t="s">
+        <v>148</v>
+      </c>
+      <c r="I47" t="s">
+        <v>189</v>
+      </c>
+      <c r="J47">
+        <v>0.00011</v>
+      </c>
+      <c r="K47">
+        <v>0.0927</v>
+      </c>
+      <c r="L47" t="s">
+        <v>252</v>
+      </c>
+      <c r="M47">
+        <v>-16.072</v>
+      </c>
+      <c r="N47" t="s">
+        <v>262</v>
+      </c>
+      <c r="O47" t="s">
+        <v>265</v>
+      </c>
+      <c r="P47">
+        <v>35</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>304</v>
+      </c>
+      <c r="R47" t="s">
+        <v>405</v>
+      </c>
+      <c r="S47">
+        <v>0.0431</v>
+      </c>
+      <c r="T47">
+        <v>149.036</v>
+      </c>
+      <c r="U47">
+        <v>5</v>
+      </c>
+      <c r="V47">
+        <v>0.343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48">
+        <v>34</v>
+      </c>
+      <c r="E48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" t="s">
+        <v>148</v>
+      </c>
+      <c r="L48" t="s">
+        <v>252</v>
+      </c>
+      <c r="N48" t="s">
+        <v>262</v>
+      </c>
+      <c r="O48" t="s">
+        <v>265</v>
+      </c>
+      <c r="R48" t="s">
+        <v>406</v>
+      </c>
+      <c r="U48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49">
+        <v>34</v>
+      </c>
+      <c r="E49" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" t="s">
+        <v>148</v>
+      </c>
+      <c r="L49" t="s">
+        <v>252</v>
+      </c>
+      <c r="N49" t="s">
+        <v>262</v>
+      </c>
+      <c r="O49" t="s">
+        <v>265</v>
+      </c>
+      <c r="R49" t="s">
+        <v>407</v>
+      </c>
+      <c r="U49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50">
+        <v>34</v>
+      </c>
+      <c r="E50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" t="s">
+        <v>148</v>
+      </c>
+      <c r="L50" t="s">
+        <v>252</v>
+      </c>
+      <c r="N50" t="s">
+        <v>262</v>
+      </c>
+      <c r="O50" t="s">
+        <v>265</v>
+      </c>
+      <c r="R50" t="s">
+        <v>408</v>
+      </c>
+      <c r="U50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.716</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51">
+        <v>34</v>
+      </c>
+      <c r="E51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51">
+        <v>0.369</v>
+      </c>
+      <c r="G51">
+        <v>0.443</v>
+      </c>
+      <c r="H51" t="s">
+        <v>148</v>
+      </c>
+      <c r="I51" t="s">
+        <v>190</v>
+      </c>
+      <c r="J51">
+        <v>0.0392</v>
+      </c>
+      <c r="K51">
+        <v>0.163</v>
+      </c>
+      <c r="L51" t="s">
+        <v>252</v>
+      </c>
+      <c r="M51">
+        <v>-14.892</v>
+      </c>
+      <c r="N51" t="s">
+        <v>262</v>
+      </c>
+      <c r="O51" t="s">
+        <v>265</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>305</v>
+      </c>
+      <c r="R51" t="s">
+        <v>409</v>
+      </c>
+      <c r="S51">
+        <v>0.0311</v>
+      </c>
+      <c r="T51">
+        <v>76.97</v>
+      </c>
+      <c r="U51">
+        <v>5</v>
+      </c>
+      <c r="V51">
+        <v>0.612</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.263</v>
+      </c>
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52">
+        <v>34</v>
+      </c>
+      <c r="E52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52">
+        <v>0.571</v>
+      </c>
+      <c r="G52">
+        <v>0.27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>148</v>
+      </c>
+      <c r="I52" t="s">
+        <v>191</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0.238</v>
+      </c>
+      <c r="L52" t="s">
+        <v>252</v>
+      </c>
+      <c r="M52">
+        <v>-15.347</v>
+      </c>
+      <c r="N52" t="s">
+        <v>262</v>
+      </c>
+      <c r="O52" t="s">
+        <v>265</v>
+      </c>
+      <c r="P52">
+        <v>18</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>306</v>
+      </c>
+      <c r="R52" t="s">
+        <v>410</v>
+      </c>
+      <c r="S52">
+        <v>0.0318</v>
+      </c>
+      <c r="T52">
+        <v>107.949</v>
+      </c>
+      <c r="U52">
+        <v>5</v>
+      </c>
+      <c r="V52">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53">
+        <v>34</v>
+      </c>
+      <c r="E53" t="s">
+        <v>70</v>
+      </c>
+      <c r="H53" t="s">
+        <v>148</v>
+      </c>
+      <c r="L53" t="s">
+        <v>252</v>
+      </c>
+      <c r="N53" t="s">
+        <v>262</v>
+      </c>
+      <c r="O53" t="s">
+        <v>266</v>
+      </c>
+      <c r="R53" t="s">
+        <v>411</v>
+      </c>
+      <c r="U53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="F33">
-        <v>0.853</v>
-      </c>
-      <c r="G33">
+      <c r="B54">
+        <v>0.835</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54">
+        <v>34</v>
+      </c>
+      <c r="E54" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54">
+        <v>0.397</v>
+      </c>
+      <c r="G54">
+        <v>0.528</v>
+      </c>
+      <c r="H54" t="s">
+        <v>148</v>
+      </c>
+      <c r="I54" t="s">
+        <v>192</v>
+      </c>
+      <c r="J54">
+        <v>2.71e-05</v>
+      </c>
+      <c r="K54">
+        <v>0.979</v>
+      </c>
+      <c r="L54" t="s">
+        <v>252</v>
+      </c>
+      <c r="M54">
+        <v>-8.571</v>
+      </c>
+      <c r="N54" t="s">
+        <v>262</v>
+      </c>
+      <c r="O54" t="s">
+        <v>266</v>
+      </c>
+      <c r="P54">
+        <v>11</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>307</v>
+      </c>
+      <c r="R54" t="s">
+        <v>412</v>
+      </c>
+      <c r="S54">
+        <v>0.0693</v>
+      </c>
+      <c r="T54">
+        <v>137.355</v>
+      </c>
+      <c r="U54">
+        <v>5</v>
+      </c>
+      <c r="V54">
+        <v>0.527</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.441</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55">
+        <v>34</v>
+      </c>
+      <c r="E55" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55">
+        <v>0.524</v>
+      </c>
+      <c r="G55">
+        <v>0.883</v>
+      </c>
+      <c r="H55" t="s">
+        <v>148</v>
+      </c>
+      <c r="I55" t="s">
+        <v>193</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0.0793</v>
+      </c>
+      <c r="L55" t="s">
+        <v>252</v>
+      </c>
+      <c r="M55">
+        <v>-3.863</v>
+      </c>
+      <c r="N55" t="s">
+        <v>262</v>
+      </c>
+      <c r="O55" t="s">
+        <v>266</v>
+      </c>
+      <c r="P55">
+        <v>30</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>308</v>
+      </c>
+      <c r="R55" t="s">
+        <v>413</v>
+      </c>
+      <c r="S55">
+        <v>0.15</v>
+      </c>
+      <c r="T55">
+        <v>189.785</v>
+      </c>
+      <c r="U55">
+        <v>5</v>
+      </c>
+      <c r="V55">
+        <v>0.785</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.485</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56">
+        <v>34</v>
+      </c>
+      <c r="E56" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56">
+        <v>0.726</v>
+      </c>
+      <c r="G56">
+        <v>0.837</v>
+      </c>
+      <c r="H56" t="s">
+        <v>148</v>
+      </c>
+      <c r="I56" t="s">
+        <v>194</v>
+      </c>
+      <c r="J56">
+        <v>0.136</v>
+      </c>
+      <c r="K56">
+        <v>0.124</v>
+      </c>
+      <c r="L56" t="s">
+        <v>252</v>
+      </c>
+      <c r="M56">
+        <v>-6.666</v>
+      </c>
+      <c r="N56" t="s">
+        <v>262</v>
+      </c>
+      <c r="O56" t="s">
+        <v>266</v>
+      </c>
+      <c r="P56">
+        <v>28</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>309</v>
+      </c>
+      <c r="R56" t="s">
+        <v>414</v>
+      </c>
+      <c r="S56">
+        <v>0.031</v>
+      </c>
+      <c r="T56">
+        <v>91.02800000000001</v>
+      </c>
+      <c r="U56">
+        <v>5</v>
+      </c>
+      <c r="V56">
+        <v>0.922</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57">
+        <v>34</v>
+      </c>
+      <c r="E57" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s">
+        <v>148</v>
+      </c>
+      <c r="L57" t="s">
+        <v>252</v>
+      </c>
+      <c r="N57" t="s">
+        <v>262</v>
+      </c>
+      <c r="O57" t="s">
+        <v>266</v>
+      </c>
+      <c r="R57" t="s">
+        <v>415</v>
+      </c>
+      <c r="U57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58">
+        <v>34</v>
+      </c>
+      <c r="E58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" t="s">
+        <v>148</v>
+      </c>
+      <c r="L58" t="s">
+        <v>252</v>
+      </c>
+      <c r="N58" t="s">
+        <v>262</v>
+      </c>
+      <c r="O58" t="s">
+        <v>266</v>
+      </c>
+      <c r="R58" t="s">
+        <v>416</v>
+      </c>
+      <c r="U58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59">
+        <v>34</v>
+      </c>
+      <c r="E59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59">
+        <v>0.601</v>
+      </c>
+      <c r="G59">
+        <v>0.443</v>
+      </c>
+      <c r="H59" t="s">
+        <v>148</v>
+      </c>
+      <c r="I59" t="s">
+        <v>195</v>
+      </c>
+      <c r="J59">
+        <v>1.65e-05</v>
+      </c>
+      <c r="K59">
+        <v>0.142</v>
+      </c>
+      <c r="L59" t="s">
+        <v>252</v>
+      </c>
+      <c r="M59">
+        <v>-6.752</v>
+      </c>
+      <c r="N59" t="s">
+        <v>262</v>
+      </c>
+      <c r="O59" t="s">
+        <v>266</v>
+      </c>
+      <c r="P59">
+        <v>31</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>310</v>
+      </c>
+      <c r="R59" t="s">
+        <v>417</v>
+      </c>
+      <c r="S59">
+        <v>0.0291</v>
+      </c>
+      <c r="T59">
+        <v>119.888</v>
+      </c>
+      <c r="U59">
+        <v>5</v>
+      </c>
+      <c r="V59">
+        <v>0.531</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.715</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>34</v>
+      </c>
+      <c r="E60" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="G60">
+        <v>0.378</v>
+      </c>
+      <c r="H60" t="s">
+        <v>148</v>
+      </c>
+      <c r="I60" t="s">
+        <v>196</v>
+      </c>
+      <c r="J60">
+        <v>1.91e-05</v>
+      </c>
+      <c r="K60">
+        <v>0.139</v>
+      </c>
+      <c r="L60" t="s">
+        <v>252</v>
+      </c>
+      <c r="M60">
+        <v>-14.288</v>
+      </c>
+      <c r="N60" t="s">
+        <v>262</v>
+      </c>
+      <c r="O60" t="s">
+        <v>266</v>
+      </c>
+      <c r="P60">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>311</v>
+      </c>
+      <c r="R60" t="s">
+        <v>418</v>
+      </c>
+      <c r="S60">
+        <v>0.0382</v>
+      </c>
+      <c r="T60">
+        <v>131.596</v>
+      </c>
+      <c r="U60">
+        <v>5</v>
+      </c>
+      <c r="V60">
+        <v>0.642</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61">
+        <v>34</v>
+      </c>
+      <c r="E61" t="s">
+        <v>78</v>
+      </c>
+      <c r="H61" t="s">
+        <v>148</v>
+      </c>
+      <c r="L61" t="s">
+        <v>252</v>
+      </c>
+      <c r="N61" t="s">
+        <v>262</v>
+      </c>
+      <c r="O61" t="s">
+        <v>266</v>
+      </c>
+      <c r="R61" t="s">
+        <v>419</v>
+      </c>
+      <c r="U61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.879</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62">
+        <v>34</v>
+      </c>
+      <c r="E62" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="G62">
+        <v>0.448</v>
+      </c>
+      <c r="H62" t="s">
+        <v>148</v>
+      </c>
+      <c r="I62" t="s">
+        <v>197</v>
+      </c>
+      <c r="J62">
+        <v>0.0138</v>
+      </c>
+      <c r="K62">
+        <v>0.193</v>
+      </c>
+      <c r="L62" t="s">
+        <v>252</v>
+      </c>
+      <c r="M62">
+        <v>-10.949</v>
+      </c>
+      <c r="N62" t="s">
+        <v>262</v>
+      </c>
+      <c r="O62" t="s">
+        <v>266</v>
+      </c>
+      <c r="P62">
+        <v>29</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>312</v>
+      </c>
+      <c r="R62" t="s">
+        <v>420</v>
+      </c>
+      <c r="S62">
+        <v>0.028</v>
+      </c>
+      <c r="T62">
+        <v>92.38500000000001</v>
+      </c>
+      <c r="U62">
+        <v>5</v>
+      </c>
+      <c r="V62">
+        <v>0.5570000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63">
+        <v>34</v>
+      </c>
+      <c r="E63" t="s">
+        <v>79</v>
+      </c>
+      <c r="H63" t="s">
+        <v>148</v>
+      </c>
+      <c r="L63" t="s">
+        <v>252</v>
+      </c>
+      <c r="N63" t="s">
+        <v>262</v>
+      </c>
+      <c r="O63" t="s">
+        <v>266</v>
+      </c>
+      <c r="R63" t="s">
+        <v>421</v>
+      </c>
+      <c r="U63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.668</v>
+      </c>
+      <c r="C64" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64">
+        <v>34</v>
+      </c>
+      <c r="E64" t="s">
+        <v>80</v>
+      </c>
+      <c r="F64">
+        <v>0.667</v>
+      </c>
+      <c r="G64">
+        <v>0.368</v>
+      </c>
+      <c r="H64" t="s">
+        <v>148</v>
+      </c>
+      <c r="I64" t="s">
+        <v>198</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0.344</v>
+      </c>
+      <c r="L64" t="s">
+        <v>252</v>
+      </c>
+      <c r="M64">
+        <v>-13.637</v>
+      </c>
+      <c r="N64" t="s">
+        <v>262</v>
+      </c>
+      <c r="O64" t="s">
+        <v>266</v>
+      </c>
+      <c r="P64">
+        <v>44</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>313</v>
+      </c>
+      <c r="R64" t="s">
+        <v>422</v>
+      </c>
+      <c r="S64">
+        <v>0.0452</v>
+      </c>
+      <c r="T64">
+        <v>114.589</v>
+      </c>
+      <c r="U64">
+        <v>5</v>
+      </c>
+      <c r="V64">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65">
+        <v>34</v>
+      </c>
+      <c r="E65" t="s">
+        <v>81</v>
+      </c>
+      <c r="H65" t="s">
+        <v>148</v>
+      </c>
+      <c r="L65" t="s">
+        <v>252</v>
+      </c>
+      <c r="N65" t="s">
+        <v>262</v>
+      </c>
+      <c r="O65" t="s">
+        <v>266</v>
+      </c>
+      <c r="R65" t="s">
+        <v>423</v>
+      </c>
+      <c r="U65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66">
+        <v>34</v>
+      </c>
+      <c r="E66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F66">
+        <v>0.279</v>
+      </c>
+      <c r="G66">
+        <v>0.0959</v>
+      </c>
+      <c r="H66" t="s">
+        <v>148</v>
+      </c>
+      <c r="I66" t="s">
+        <v>199</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0.114</v>
+      </c>
+      <c r="L66" t="s">
+        <v>252</v>
+      </c>
+      <c r="M66">
+        <v>-17.993</v>
+      </c>
+      <c r="N66" t="s">
+        <v>262</v>
+      </c>
+      <c r="O66" t="s">
+        <v>266</v>
+      </c>
+      <c r="P66">
+        <v>8</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>314</v>
+      </c>
+      <c r="R66" t="s">
+        <v>424</v>
+      </c>
+      <c r="S66">
+        <v>0.0392</v>
+      </c>
+      <c r="T66">
+        <v>75.836</v>
+      </c>
+      <c r="U66">
+        <v>5</v>
+      </c>
+      <c r="V66">
+        <v>0.283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.751</v>
+      </c>
+      <c r="C67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67">
+        <v>34</v>
+      </c>
+      <c r="E67" t="s">
+        <v>83</v>
+      </c>
+      <c r="F67">
+        <v>0.525</v>
+      </c>
+      <c r="G67">
+        <v>0.532</v>
+      </c>
+      <c r="H67" t="s">
+        <v>148</v>
+      </c>
+      <c r="I67" t="s">
+        <v>200</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0.122</v>
+      </c>
+      <c r="L67" t="s">
+        <v>252</v>
+      </c>
+      <c r="M67">
+        <v>-5.615</v>
+      </c>
+      <c r="N67" t="s">
+        <v>262</v>
+      </c>
+      <c r="O67" t="s">
+        <v>266</v>
+      </c>
+      <c r="P67">
+        <v>34</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>315</v>
+      </c>
+      <c r="R67" t="s">
+        <v>425</v>
+      </c>
+      <c r="S67">
+        <v>0.0277</v>
+      </c>
+      <c r="T67">
+        <v>98.14700000000001</v>
+      </c>
+      <c r="U67">
+        <v>5</v>
+      </c>
+      <c r="V67">
+        <v>0.407</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.371</v>
+      </c>
+      <c r="C68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68">
+        <v>34</v>
+      </c>
+      <c r="E68" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G68">
+        <v>0.535</v>
+      </c>
+      <c r="H68" t="s">
+        <v>148</v>
+      </c>
+      <c r="I68" t="s">
+        <v>201</v>
+      </c>
+      <c r="J68">
+        <v>2.1e-05</v>
+      </c>
+      <c r="K68">
+        <v>0.299</v>
+      </c>
+      <c r="L68" t="s">
+        <v>252</v>
+      </c>
+      <c r="M68">
+        <v>-11.004</v>
+      </c>
+      <c r="N68" t="s">
+        <v>262</v>
+      </c>
+      <c r="O68" t="s">
+        <v>266</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>316</v>
+      </c>
+      <c r="R68" t="s">
+        <v>426</v>
+      </c>
+      <c r="S68">
+        <v>0.0261</v>
+      </c>
+      <c r="T68">
+        <v>99.55800000000001</v>
+      </c>
+      <c r="U68">
+        <v>5</v>
+      </c>
+      <c r="V68">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.805</v>
+      </c>
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69">
+        <v>34</v>
+      </c>
+      <c r="E69" t="s">
+        <v>85</v>
+      </c>
+      <c r="F69">
+        <v>0.57</v>
+      </c>
+      <c r="G69">
+        <v>0.31</v>
+      </c>
+      <c r="H69" t="s">
+        <v>148</v>
+      </c>
+      <c r="I69" t="s">
+        <v>202</v>
+      </c>
+      <c r="J69">
+        <v>0.000102</v>
+      </c>
+      <c r="K69">
+        <v>0.09660000000000001</v>
+      </c>
+      <c r="L69" t="s">
+        <v>252</v>
+      </c>
+      <c r="M69">
+        <v>-15.254</v>
+      </c>
+      <c r="N69" t="s">
+        <v>262</v>
+      </c>
+      <c r="O69" t="s">
+        <v>266</v>
+      </c>
+      <c r="P69">
+        <v>9</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>317</v>
+      </c>
+      <c r="R69" t="s">
+        <v>427</v>
+      </c>
+      <c r="S69">
+        <v>0.0374</v>
+      </c>
+      <c r="T69">
+        <v>93.443</v>
+      </c>
+      <c r="U69">
+        <v>5</v>
+      </c>
+      <c r="V69">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70">
+        <v>34</v>
+      </c>
+      <c r="E70" t="s">
+        <v>86</v>
+      </c>
+      <c r="H70" t="s">
+        <v>148</v>
+      </c>
+      <c r="L70" t="s">
+        <v>252</v>
+      </c>
+      <c r="N70" t="s">
+        <v>262</v>
+      </c>
+      <c r="O70" t="s">
+        <v>266</v>
+      </c>
+      <c r="R70" t="s">
+        <v>428</v>
+      </c>
+      <c r="U70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.594</v>
+      </c>
+      <c r="C71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71">
+        <v>34</v>
+      </c>
+      <c r="E71" t="s">
+        <v>87</v>
+      </c>
+      <c r="F71">
+        <v>0.855</v>
+      </c>
+      <c r="G71">
+        <v>0.398</v>
+      </c>
+      <c r="H71" t="s">
+        <v>148</v>
+      </c>
+      <c r="I71" t="s">
+        <v>203</v>
+      </c>
+      <c r="J71">
+        <v>4.33e-06</v>
+      </c>
+      <c r="K71">
+        <v>0.136</v>
+      </c>
+      <c r="L71" t="s">
+        <v>252</v>
+      </c>
+      <c r="M71">
+        <v>-10.072</v>
+      </c>
+      <c r="N71" t="s">
+        <v>262</v>
+      </c>
+      <c r="O71" t="s">
+        <v>266</v>
+      </c>
+      <c r="P71">
+        <v>34</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>318</v>
+      </c>
+      <c r="R71" t="s">
+        <v>429</v>
+      </c>
+      <c r="S71">
+        <v>0.0583</v>
+      </c>
+      <c r="T71">
+        <v>116.139</v>
+      </c>
+      <c r="U71">
+        <v>5</v>
+      </c>
+      <c r="V71">
+        <v>0.888</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72">
+        <v>34</v>
+      </c>
+      <c r="E72" t="s">
+        <v>88</v>
+      </c>
+      <c r="H72" t="s">
+        <v>148</v>
+      </c>
+      <c r="L72" t="s">
+        <v>252</v>
+      </c>
+      <c r="N72" t="s">
+        <v>262</v>
+      </c>
+      <c r="O72" t="s">
+        <v>266</v>
+      </c>
+      <c r="R72" t="s">
+        <v>430</v>
+      </c>
+      <c r="U72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73">
+        <v>34</v>
+      </c>
+      <c r="E73" t="s">
+        <v>89</v>
+      </c>
+      <c r="H73" t="s">
+        <v>148</v>
+      </c>
+      <c r="L73" t="s">
+        <v>252</v>
+      </c>
+      <c r="N73" t="s">
+        <v>262</v>
+      </c>
+      <c r="O73" t="s">
+        <v>266</v>
+      </c>
+      <c r="R73" t="s">
+        <v>431</v>
+      </c>
+      <c r="U73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74">
+        <v>34</v>
+      </c>
+      <c r="E74" t="s">
+        <v>67</v>
+      </c>
+      <c r="H74" t="s">
+        <v>148</v>
+      </c>
+      <c r="L74" t="s">
+        <v>252</v>
+      </c>
+      <c r="N74" t="s">
+        <v>262</v>
+      </c>
+      <c r="O74" t="s">
+        <v>266</v>
+      </c>
+      <c r="R74" t="s">
+        <v>432</v>
+      </c>
+      <c r="U74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.626</v>
+      </c>
+      <c r="C75" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75">
+        <v>34</v>
+      </c>
+      <c r="E75" t="s">
+        <v>90</v>
+      </c>
+      <c r="F75">
+        <v>0.761</v>
+      </c>
+      <c r="G75">
+        <v>0.571</v>
+      </c>
+      <c r="H75" t="s">
+        <v>148</v>
+      </c>
+      <c r="I75" t="s">
+        <v>204</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0.08840000000000001</v>
+      </c>
+      <c r="L75" t="s">
+        <v>252</v>
+      </c>
+      <c r="M75">
+        <v>-7.388</v>
+      </c>
+      <c r="N75" t="s">
+        <v>262</v>
+      </c>
+      <c r="O75" t="s">
+        <v>266</v>
+      </c>
+      <c r="P75">
+        <v>18</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>319</v>
+      </c>
+      <c r="R75" t="s">
+        <v>433</v>
+      </c>
+      <c r="S75">
+        <v>0.0316</v>
+      </c>
+      <c r="T75">
+        <v>110.086</v>
+      </c>
+      <c r="U75">
+        <v>5</v>
+      </c>
+      <c r="V75">
+        <v>0.791</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76">
+        <v>34</v>
+      </c>
+      <c r="E76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76" t="s">
+        <v>148</v>
+      </c>
+      <c r="L76" t="s">
+        <v>252</v>
+      </c>
+      <c r="N76" t="s">
+        <v>262</v>
+      </c>
+      <c r="O76" t="s">
+        <v>266</v>
+      </c>
+      <c r="R76" t="s">
+        <v>434</v>
+      </c>
+      <c r="U76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77">
+        <v>34</v>
+      </c>
+      <c r="E77" t="s">
+        <v>92</v>
+      </c>
+      <c r="H77" t="s">
+        <v>148</v>
+      </c>
+      <c r="L77" t="s">
+        <v>252</v>
+      </c>
+      <c r="N77" t="s">
+        <v>262</v>
+      </c>
+      <c r="O77" t="s">
+        <v>266</v>
+      </c>
+      <c r="R77" t="s">
+        <v>435</v>
+      </c>
+      <c r="U77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78">
+        <v>34</v>
+      </c>
+      <c r="E78" t="s">
+        <v>75</v>
+      </c>
+      <c r="H78" t="s">
+        <v>148</v>
+      </c>
+      <c r="L78" t="s">
+        <v>252</v>
+      </c>
+      <c r="N78" t="s">
+        <v>262</v>
+      </c>
+      <c r="O78" t="s">
+        <v>266</v>
+      </c>
+      <c r="R78" t="s">
+        <v>436</v>
+      </c>
+      <c r="U78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79">
+        <v>34</v>
+      </c>
+      <c r="E79" t="s">
+        <v>93</v>
+      </c>
+      <c r="H79" t="s">
+        <v>148</v>
+      </c>
+      <c r="L79" t="s">
+        <v>252</v>
+      </c>
+      <c r="N79" t="s">
+        <v>262</v>
+      </c>
+      <c r="O79" t="s">
+        <v>266</v>
+      </c>
+      <c r="R79" t="s">
+        <v>437</v>
+      </c>
+      <c r="U79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.835</v>
+      </c>
+      <c r="C80" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80">
+        <v>34</v>
+      </c>
+      <c r="E80" t="s">
+        <v>94</v>
+      </c>
+      <c r="F80">
+        <v>0.652</v>
+      </c>
+      <c r="G80">
+        <v>0.274</v>
+      </c>
+      <c r="H80" t="s">
+        <v>148</v>
+      </c>
+      <c r="I80" t="s">
+        <v>205</v>
+      </c>
+      <c r="J80">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="K80">
+        <v>0.09089999999999999</v>
+      </c>
+      <c r="L80" t="s">
+        <v>252</v>
+      </c>
+      <c r="M80">
+        <v>-13.899</v>
+      </c>
+      <c r="N80" t="s">
+        <v>262</v>
+      </c>
+      <c r="O80" t="s">
+        <v>266</v>
+      </c>
+      <c r="P80">
+        <v>44</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>320</v>
+      </c>
+      <c r="R80" t="s">
+        <v>438</v>
+      </c>
+      <c r="S80">
+        <v>0.0356</v>
+      </c>
+      <c r="T80">
+        <v>119.803</v>
+      </c>
+      <c r="U80">
+        <v>5</v>
+      </c>
+      <c r="V80">
+        <v>0.456</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81">
+        <v>34</v>
+      </c>
+      <c r="E81" t="s">
+        <v>95</v>
+      </c>
+      <c r="H81" t="s">
+        <v>148</v>
+      </c>
+      <c r="L81" t="s">
+        <v>252</v>
+      </c>
+      <c r="N81" t="s">
+        <v>262</v>
+      </c>
+      <c r="O81" t="s">
+        <v>266</v>
+      </c>
+      <c r="R81" t="s">
+        <v>439</v>
+      </c>
+      <c r="U81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82">
+        <v>34</v>
+      </c>
+      <c r="E82" t="s">
+        <v>65</v>
+      </c>
+      <c r="H82" t="s">
+        <v>148</v>
+      </c>
+      <c r="L82" t="s">
+        <v>252</v>
+      </c>
+      <c r="N82" t="s">
+        <v>262</v>
+      </c>
+      <c r="O82" t="s">
+        <v>266</v>
+      </c>
+      <c r="R82" t="s">
+        <v>440</v>
+      </c>
+      <c r="U82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.066</v>
+      </c>
+      <c r="C83" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83">
+        <v>34</v>
+      </c>
+      <c r="E83" t="s">
+        <v>72</v>
+      </c>
+      <c r="F83">
+        <v>0.371</v>
+      </c>
+      <c r="G83">
+        <v>0.759</v>
+      </c>
+      <c r="H83" t="s">
+        <v>148</v>
+      </c>
+      <c r="I83" t="s">
+        <v>206</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0.484</v>
+      </c>
+      <c r="L83" t="s">
+        <v>252</v>
+      </c>
+      <c r="M83">
+        <v>-4.385</v>
+      </c>
+      <c r="N83" t="s">
+        <v>262</v>
+      </c>
+      <c r="O83" t="s">
+        <v>266</v>
+      </c>
+      <c r="P83">
+        <v>24</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>321</v>
+      </c>
+      <c r="R83" t="s">
+        <v>441</v>
+      </c>
+      <c r="S83">
+        <v>0.0379</v>
+      </c>
+      <c r="T83">
+        <v>104.301</v>
+      </c>
+      <c r="U83">
+        <v>5</v>
+      </c>
+      <c r="V83">
+        <v>0.536</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84">
+        <v>34</v>
+      </c>
+      <c r="E84" t="s">
+        <v>60</v>
+      </c>
+      <c r="H84" t="s">
+        <v>148</v>
+      </c>
+      <c r="L84" t="s">
+        <v>252</v>
+      </c>
+      <c r="N84" t="s">
+        <v>262</v>
+      </c>
+      <c r="O84" t="s">
+        <v>266</v>
+      </c>
+      <c r="R84" t="s">
+        <v>442</v>
+      </c>
+      <c r="U84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85">
+        <v>34</v>
+      </c>
+      <c r="E85" t="s">
+        <v>96</v>
+      </c>
+      <c r="H85" t="s">
+        <v>148</v>
+      </c>
+      <c r="L85" t="s">
+        <v>252</v>
+      </c>
+      <c r="N85" t="s">
+        <v>262</v>
+      </c>
+      <c r="O85" t="s">
+        <v>266</v>
+      </c>
+      <c r="R85" t="s">
+        <v>443</v>
+      </c>
+      <c r="U85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86">
+        <v>34</v>
+      </c>
+      <c r="E86" t="s">
+        <v>97</v>
+      </c>
+      <c r="H86" t="s">
+        <v>148</v>
+      </c>
+      <c r="L86" t="s">
+        <v>252</v>
+      </c>
+      <c r="N86" t="s">
+        <v>262</v>
+      </c>
+      <c r="O86" t="s">
+        <v>266</v>
+      </c>
+      <c r="R86" t="s">
+        <v>444</v>
+      </c>
+      <c r="U86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87">
+        <v>34</v>
+      </c>
+      <c r="E87" t="s">
+        <v>98</v>
+      </c>
+      <c r="H87" t="s">
+        <v>148</v>
+      </c>
+      <c r="L87" t="s">
+        <v>252</v>
+      </c>
+      <c r="N87" t="s">
+        <v>262</v>
+      </c>
+      <c r="O87" t="s">
+        <v>266</v>
+      </c>
+      <c r="R87" t="s">
+        <v>445</v>
+      </c>
+      <c r="U87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.865</v>
+      </c>
+      <c r="C88" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88">
+        <v>34</v>
+      </c>
+      <c r="E88" t="s">
+        <v>99</v>
+      </c>
+      <c r="F88">
+        <v>0.607</v>
+      </c>
+      <c r="G88">
+        <v>0.294</v>
+      </c>
+      <c r="H88" t="s">
+        <v>148</v>
+      </c>
+      <c r="I88" t="s">
+        <v>207</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0.115</v>
+      </c>
+      <c r="L88" t="s">
+        <v>252</v>
+      </c>
+      <c r="M88">
+        <v>-16.187</v>
+      </c>
+      <c r="N88" t="s">
+        <v>262</v>
+      </c>
+      <c r="O88" t="s">
+        <v>266</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>322</v>
+      </c>
+      <c r="R88" t="s">
+        <v>446</v>
+      </c>
+      <c r="S88">
+        <v>0.0287</v>
+      </c>
+      <c r="T88">
+        <v>139.998</v>
+      </c>
+      <c r="U88">
+        <v>5</v>
+      </c>
+      <c r="V88">
+        <v>0.711</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89">
+        <v>34</v>
+      </c>
+      <c r="E89" t="s">
+        <v>89</v>
+      </c>
+      <c r="H89" t="s">
+        <v>148</v>
+      </c>
+      <c r="L89" t="s">
+        <v>252</v>
+      </c>
+      <c r="N89" t="s">
+        <v>262</v>
+      </c>
+      <c r="O89" t="s">
+        <v>266</v>
+      </c>
+      <c r="R89" t="s">
+        <v>447</v>
+      </c>
+      <c r="U89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.177</v>
+      </c>
+      <c r="C90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90">
+        <v>34</v>
+      </c>
+      <c r="E90" t="s">
+        <v>100</v>
+      </c>
+      <c r="F90">
+        <v>0.504</v>
+      </c>
+      <c r="G90">
+        <v>0.865</v>
+      </c>
+      <c r="H90" t="s">
+        <v>148</v>
+      </c>
+      <c r="I90" t="s">
+        <v>208</v>
+      </c>
+      <c r="J90">
+        <v>0.000895</v>
+      </c>
+      <c r="K90">
+        <v>0.345</v>
+      </c>
+      <c r="L90" t="s">
+        <v>252</v>
+      </c>
+      <c r="M90">
+        <v>-4.099</v>
+      </c>
+      <c r="N90" t="s">
+        <v>263</v>
+      </c>
+      <c r="O90" t="s">
+        <v>267</v>
+      </c>
+      <c r="P90">
+        <v>28</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>323</v>
+      </c>
+      <c r="R90" t="s">
+        <v>448</v>
+      </c>
+      <c r="S90">
+        <v>0.0504</v>
+      </c>
+      <c r="T90">
+        <v>107.995</v>
+      </c>
+      <c r="U90">
+        <v>5</v>
+      </c>
+      <c r="V90">
+        <v>0.543</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91">
+        <v>34</v>
+      </c>
+      <c r="E91" t="s">
+        <v>101</v>
+      </c>
+      <c r="H91" t="s">
+        <v>148</v>
+      </c>
+      <c r="L91" t="s">
+        <v>252</v>
+      </c>
+      <c r="N91" t="s">
+        <v>263</v>
+      </c>
+      <c r="O91" t="s">
+        <v>267</v>
+      </c>
+      <c r="R91" t="s">
+        <v>449</v>
+      </c>
+      <c r="U91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0.0311</v>
+      </c>
+      <c r="C92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92">
+        <v>34</v>
+      </c>
+      <c r="E92" t="s">
+        <v>102</v>
+      </c>
+      <c r="F92">
+        <v>0.4</v>
+      </c>
+      <c r="G92">
+        <v>0.482</v>
+      </c>
+      <c r="H92" t="s">
+        <v>148</v>
+      </c>
+      <c r="I92" t="s">
+        <v>209</v>
+      </c>
+      <c r="J92">
+        <v>0.000101</v>
+      </c>
+      <c r="K92">
+        <v>0.199</v>
+      </c>
+      <c r="L92" t="s">
+        <v>252</v>
+      </c>
+      <c r="M92">
+        <v>-10.165</v>
+      </c>
+      <c r="N92" t="s">
+        <v>263</v>
+      </c>
+      <c r="O92" t="s">
+        <v>267</v>
+      </c>
+      <c r="P92">
+        <v>21</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>324</v>
+      </c>
+      <c r="R92" t="s">
+        <v>450</v>
+      </c>
+      <c r="S92">
+        <v>0.0338</v>
+      </c>
+      <c r="T92">
+        <v>157.552</v>
+      </c>
+      <c r="U92">
+        <v>5</v>
+      </c>
+      <c r="V92">
+        <v>0.521</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0.183</v>
+      </c>
+      <c r="C93" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93">
+        <v>34</v>
+      </c>
+      <c r="E93" t="s">
+        <v>103</v>
+      </c>
+      <c r="F93">
+        <v>0.515</v>
+      </c>
+      <c r="G93">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="H93" t="s">
+        <v>148</v>
+      </c>
+      <c r="I93" t="s">
+        <v>210</v>
+      </c>
+      <c r="J93">
+        <v>3.93e-05</v>
+      </c>
+      <c r="K93">
+        <v>0.07049999999999999</v>
+      </c>
+      <c r="L93" t="s">
+        <v>252</v>
+      </c>
+      <c r="M93">
+        <v>-6.015</v>
+      </c>
+      <c r="N93" t="s">
+        <v>263</v>
+      </c>
+      <c r="O93" t="s">
+        <v>267</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>325</v>
+      </c>
+      <c r="R93" t="s">
+        <v>451</v>
+      </c>
+      <c r="S93">
+        <v>0.0298</v>
+      </c>
+      <c r="T93">
+        <v>91.288</v>
+      </c>
+      <c r="U93">
+        <v>5</v>
+      </c>
+      <c r="V93">
+        <v>0.729</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0.225</v>
+      </c>
+      <c r="C94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94">
+        <v>34</v>
+      </c>
+      <c r="E94" t="s">
+        <v>104</v>
+      </c>
+      <c r="F94">
+        <v>0.582</v>
+      </c>
+      <c r="G94">
+        <v>0.636</v>
+      </c>
+      <c r="H94" t="s">
+        <v>148</v>
+      </c>
+      <c r="I94" t="s">
+        <v>211</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0.26</v>
+      </c>
+      <c r="L94" t="s">
+        <v>252</v>
+      </c>
+      <c r="M94">
+        <v>-5.138</v>
+      </c>
+      <c r="N94" t="s">
+        <v>263</v>
+      </c>
+      <c r="O94" t="s">
+        <v>267</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>326</v>
+      </c>
+      <c r="R94" t="s">
+        <v>452</v>
+      </c>
+      <c r="S94">
+        <v>0.0339</v>
+      </c>
+      <c r="T94">
+        <v>82.205</v>
+      </c>
+      <c r="U94">
+        <v>5</v>
+      </c>
+      <c r="V94">
+        <v>0.635</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0.224</v>
+      </c>
+      <c r="C95" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95">
+        <v>34</v>
+      </c>
+      <c r="E95" t="s">
+        <v>105</v>
+      </c>
+      <c r="F95">
+        <v>0.547</v>
+      </c>
+      <c r="G95">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H95" t="s">
+        <v>148</v>
+      </c>
+      <c r="I95" t="s">
+        <v>212</v>
+      </c>
+      <c r="J95">
+        <v>0.0573</v>
+      </c>
+      <c r="K95">
+        <v>0.106</v>
+      </c>
+      <c r="L95" t="s">
+        <v>252</v>
+      </c>
+      <c r="M95">
+        <v>-7.776</v>
+      </c>
+      <c r="N95" t="s">
+        <v>263</v>
+      </c>
+      <c r="O95" t="s">
+        <v>267</v>
+      </c>
+      <c r="P95">
+        <v>21</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>327</v>
+      </c>
+      <c r="R95" t="s">
+        <v>453</v>
+      </c>
+      <c r="S95">
+        <v>0.0571</v>
+      </c>
+      <c r="T95">
+        <v>124.153</v>
+      </c>
+      <c r="U95">
+        <v>5</v>
+      </c>
+      <c r="V95">
+        <v>0.768</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0.138</v>
+      </c>
+      <c r="C96" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96">
+        <v>34</v>
+      </c>
+      <c r="E96" t="s">
+        <v>106</v>
+      </c>
+      <c r="F96">
+        <v>0.676</v>
+      </c>
+      <c r="G96">
+        <v>0.92</v>
+      </c>
+      <c r="H96" t="s">
+        <v>148</v>
+      </c>
+      <c r="I96" t="s">
+        <v>213</v>
+      </c>
+      <c r="J96">
+        <v>0.0107</v>
+      </c>
+      <c r="K96">
+        <v>0.238</v>
+      </c>
+      <c r="L96" t="s">
+        <v>252</v>
+      </c>
+      <c r="M96">
+        <v>-5.823</v>
+      </c>
+      <c r="N96" t="s">
+        <v>263</v>
+      </c>
+      <c r="O96" t="s">
+        <v>267</v>
+      </c>
+      <c r="P96">
+        <v>48</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>328</v>
+      </c>
+      <c r="R96" t="s">
+        <v>454</v>
+      </c>
+      <c r="S96">
+        <v>0.269</v>
+      </c>
+      <c r="T96">
+        <v>127.131</v>
+      </c>
+      <c r="U96">
+        <v>5</v>
+      </c>
+      <c r="V96">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0.18</v>
+      </c>
+      <c r="C97" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97">
+        <v>34</v>
+      </c>
+      <c r="E97" t="s">
+        <v>107</v>
+      </c>
+      <c r="F97">
+        <v>0.435</v>
+      </c>
+      <c r="G97">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="H97" t="s">
+        <v>148</v>
+      </c>
+      <c r="I97" t="s">
+        <v>214</v>
+      </c>
+      <c r="J97">
+        <v>0.008229999999999999</v>
+      </c>
+      <c r="K97">
+        <v>0.0912</v>
+      </c>
+      <c r="L97" t="s">
+        <v>252</v>
+      </c>
+      <c r="M97">
+        <v>-7.367</v>
+      </c>
+      <c r="N97" t="s">
+        <v>263</v>
+      </c>
+      <c r="O97" t="s">
+        <v>267</v>
+      </c>
+      <c r="P97">
+        <v>12</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>329</v>
+      </c>
+      <c r="R97" t="s">
+        <v>455</v>
+      </c>
+      <c r="S97">
+        <v>0.0303</v>
+      </c>
+      <c r="T97">
+        <v>127.553</v>
+      </c>
+      <c r="U97">
+        <v>5</v>
+      </c>
+      <c r="V97">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0.00286</v>
+      </c>
+      <c r="C98" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98">
+        <v>34</v>
+      </c>
+      <c r="E98" t="s">
+        <v>108</v>
+      </c>
+      <c r="F98">
+        <v>0.367</v>
+      </c>
+      <c r="G98">
+        <v>0.877</v>
+      </c>
+      <c r="H98" t="s">
+        <v>148</v>
+      </c>
+      <c r="I98" t="s">
+        <v>215</v>
+      </c>
+      <c r="J98">
+        <v>0.00224</v>
+      </c>
+      <c r="K98">
+        <v>0.192</v>
+      </c>
+      <c r="L98" t="s">
+        <v>252</v>
+      </c>
+      <c r="M98">
+        <v>-5.026</v>
+      </c>
+      <c r="N98" t="s">
+        <v>263</v>
+      </c>
+      <c r="O98" t="s">
+        <v>267</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>330</v>
+      </c>
+      <c r="R98" t="s">
+        <v>456</v>
+      </c>
+      <c r="S98">
+        <v>0.06560000000000001</v>
+      </c>
+      <c r="T98">
+        <v>179.228</v>
+      </c>
+      <c r="U98">
+        <v>5</v>
+      </c>
+      <c r="V98">
+        <v>0.9409999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99">
+        <v>34</v>
+      </c>
+      <c r="E99" t="s">
+        <v>109</v>
+      </c>
+      <c r="H99" t="s">
+        <v>148</v>
+      </c>
+      <c r="L99" t="s">
+        <v>252</v>
+      </c>
+      <c r="N99" t="s">
+        <v>263</v>
+      </c>
+      <c r="O99" t="s">
+        <v>267</v>
+      </c>
+      <c r="R99" t="s">
+        <v>457</v>
+      </c>
+      <c r="U99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0.156</v>
+      </c>
+      <c r="C100" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100">
+        <v>34</v>
+      </c>
+      <c r="E100" t="s">
+        <v>110</v>
+      </c>
+      <c r="F100">
+        <v>0.275</v>
+      </c>
+      <c r="G100">
+        <v>0.449</v>
+      </c>
+      <c r="H100" t="s">
+        <v>148</v>
+      </c>
+      <c r="I100" t="s">
+        <v>216</v>
+      </c>
+      <c r="J100">
+        <v>0.0172</v>
+      </c>
+      <c r="K100">
+        <v>0.152</v>
+      </c>
+      <c r="L100" t="s">
+        <v>252</v>
+      </c>
+      <c r="M100">
+        <v>-11.616</v>
+      </c>
+      <c r="N100" t="s">
+        <v>263</v>
+      </c>
+      <c r="O100" t="s">
+        <v>267</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>331</v>
+      </c>
+      <c r="R100" t="s">
+        <v>458</v>
+      </c>
+      <c r="S100">
+        <v>0.0292</v>
+      </c>
+      <c r="T100">
+        <v>185.631</v>
+      </c>
+      <c r="U100">
+        <v>5</v>
+      </c>
+      <c r="V100">
+        <v>0.235</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="C101" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101">
+        <v>34</v>
+      </c>
+      <c r="E101" t="s">
+        <v>111</v>
+      </c>
+      <c r="H101" t="s">
+        <v>148</v>
+      </c>
+      <c r="L101" t="s">
+        <v>252</v>
+      </c>
+      <c r="N101" t="s">
+        <v>263</v>
+      </c>
+      <c r="O101" t="s">
+        <v>267</v>
+      </c>
+      <c r="R101" t="s">
+        <v>459</v>
+      </c>
+      <c r="U101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="C102" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102">
+        <v>34</v>
+      </c>
+      <c r="E102" t="s">
+        <v>112</v>
+      </c>
+      <c r="F102">
+        <v>0.595</v>
+      </c>
+      <c r="G102">
+        <v>0.339</v>
+      </c>
+      <c r="H102" t="s">
+        <v>148</v>
+      </c>
+      <c r="I102" t="s">
+        <v>217</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0.944</v>
+      </c>
+      <c r="L102" t="s">
+        <v>252</v>
+      </c>
+      <c r="M102">
+        <v>-11.072</v>
+      </c>
+      <c r="N102" t="s">
+        <v>263</v>
+      </c>
+      <c r="O102" t="s">
+        <v>267</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>332</v>
+      </c>
+      <c r="R102" t="s">
+        <v>460</v>
+      </c>
+      <c r="S102">
+        <v>0.0456</v>
+      </c>
+      <c r="T102">
+        <v>122.351</v>
+      </c>
+      <c r="U102">
+        <v>5</v>
+      </c>
+      <c r="V102">
+        <v>0.329</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>0.0244</v>
+      </c>
+      <c r="C103" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103">
+        <v>34</v>
+      </c>
+      <c r="E103" t="s">
+        <v>113</v>
+      </c>
+      <c r="F103">
+        <v>0.437</v>
+      </c>
+      <c r="G103">
+        <v>0.968</v>
+      </c>
+      <c r="H103" t="s">
+        <v>148</v>
+      </c>
+      <c r="I103" t="s">
+        <v>218</v>
+      </c>
+      <c r="J103">
+        <v>0.865</v>
+      </c>
+      <c r="K103">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="L103" t="s">
+        <v>252</v>
+      </c>
+      <c r="M103">
+        <v>-4.267</v>
+      </c>
+      <c r="N103" t="s">
+        <v>263</v>
+      </c>
+      <c r="O103" t="s">
+        <v>267</v>
+      </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>333</v>
+      </c>
+      <c r="R103" t="s">
+        <v>461</v>
+      </c>
+      <c r="S103">
+        <v>0.0806</v>
+      </c>
+      <c r="T103">
+        <v>135.574</v>
+      </c>
+      <c r="U103">
+        <v>5</v>
+      </c>
+      <c r="V103">
+        <v>0.744</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>0.849</v>
+      </c>
+      <c r="C104" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104">
+        <v>34</v>
+      </c>
+      <c r="E104" t="s">
+        <v>114</v>
+      </c>
+      <c r="F104">
+        <v>0.67</v>
+      </c>
+      <c r="G104">
+        <v>0.47</v>
+      </c>
+      <c r="H104" t="s">
+        <v>148</v>
+      </c>
+      <c r="I104" t="s">
+        <v>219</v>
+      </c>
+      <c r="J104">
+        <v>0.000269</v>
+      </c>
+      <c r="K104">
+        <v>0.112</v>
+      </c>
+      <c r="L104" t="s">
+        <v>252</v>
+      </c>
+      <c r="M104">
+        <v>-6.424</v>
+      </c>
+      <c r="N104" t="s">
+        <v>263</v>
+      </c>
+      <c r="O104" t="s">
+        <v>267</v>
+      </c>
+      <c r="P104">
+        <v>23</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>334</v>
+      </c>
+      <c r="R104" t="s">
+        <v>462</v>
+      </c>
+      <c r="S104">
+        <v>0.0279</v>
+      </c>
+      <c r="T104">
+        <v>143.937</v>
+      </c>
+      <c r="U104">
+        <v>5</v>
+      </c>
+      <c r="V104">
+        <v>0.487</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>0.586</v>
+      </c>
+      <c r="C105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105">
+        <v>34</v>
+      </c>
+      <c r="E105" t="s">
+        <v>115</v>
+      </c>
+      <c r="F105">
+        <v>0.621</v>
+      </c>
+      <c r="G105">
+        <v>0.389</v>
+      </c>
+      <c r="H105" t="s">
+        <v>148</v>
+      </c>
+      <c r="I105" t="s">
+        <v>220</v>
+      </c>
+      <c r="J105">
+        <v>0.00327</v>
+      </c>
+      <c r="K105">
+        <v>0.115</v>
+      </c>
+      <c r="L105" t="s">
+        <v>252</v>
+      </c>
+      <c r="M105">
+        <v>-13.686</v>
+      </c>
+      <c r="N105" t="s">
+        <v>263</v>
+      </c>
+      <c r="O105" t="s">
+        <v>267</v>
+      </c>
+      <c r="P105">
+        <v>1</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>335</v>
+      </c>
+      <c r="R105" t="s">
+        <v>463</v>
+      </c>
+      <c r="S105">
+        <v>0.0257</v>
+      </c>
+      <c r="T105">
+        <v>94.081</v>
+      </c>
+      <c r="U105">
+        <v>5</v>
+      </c>
+      <c r="V105">
+        <v>0.736</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="C106" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106">
+        <v>34</v>
+      </c>
+      <c r="E106" t="s">
+        <v>116</v>
+      </c>
+      <c r="H106" t="s">
+        <v>148</v>
+      </c>
+      <c r="L106" t="s">
+        <v>252</v>
+      </c>
+      <c r="N106" t="s">
+        <v>263</v>
+      </c>
+      <c r="O106" t="s">
+        <v>267</v>
+      </c>
+      <c r="R106" t="s">
+        <v>464</v>
+      </c>
+      <c r="U106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>0.841</v>
+      </c>
+      <c r="C107" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107">
+        <v>34</v>
+      </c>
+      <c r="E107" t="s">
+        <v>117</v>
+      </c>
+      <c r="F107">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G107">
+        <v>0.437</v>
+      </c>
+      <c r="H107" t="s">
+        <v>148</v>
+      </c>
+      <c r="I107" t="s">
+        <v>221</v>
+      </c>
+      <c r="J107">
+        <v>0.365</v>
+      </c>
+      <c r="K107">
+        <v>0.0983</v>
+      </c>
+      <c r="L107" t="s">
+        <v>252</v>
+      </c>
+      <c r="M107">
+        <v>-10.445</v>
+      </c>
+      <c r="N107" t="s">
+        <v>263</v>
+      </c>
+      <c r="O107" t="s">
+        <v>267</v>
+      </c>
+      <c r="P107">
+        <v>31</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>336</v>
+      </c>
+      <c r="R107" t="s">
+        <v>465</v>
+      </c>
+      <c r="S107">
+        <v>0.0337</v>
+      </c>
+      <c r="T107">
+        <v>117.597</v>
+      </c>
+      <c r="U107">
+        <v>5</v>
+      </c>
+      <c r="V107">
+        <v>0.416</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>0.889</v>
+      </c>
+      <c r="C108" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108">
+        <v>34</v>
+      </c>
+      <c r="E108" t="s">
+        <v>118</v>
+      </c>
+      <c r="F108">
+        <v>0.671</v>
+      </c>
+      <c r="G108">
+        <v>0.253</v>
+      </c>
+      <c r="H108" t="s">
+        <v>148</v>
+      </c>
+      <c r="I108" t="s">
+        <v>222</v>
+      </c>
+      <c r="J108">
+        <v>0.00702</v>
+      </c>
+      <c r="K108">
+        <v>0.14</v>
+      </c>
+      <c r="L108" t="s">
+        <v>252</v>
+      </c>
+      <c r="M108">
+        <v>-13.234</v>
+      </c>
+      <c r="N108" t="s">
+        <v>263</v>
+      </c>
+      <c r="O108" t="s">
+        <v>267</v>
+      </c>
+      <c r="P108">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>337</v>
+      </c>
+      <c r="R108" t="s">
+        <v>466</v>
+      </c>
+      <c r="S108">
+        <v>0.0515</v>
+      </c>
+      <c r="T108">
+        <v>95.28</v>
+      </c>
+      <c r="U108">
+        <v>5</v>
+      </c>
+      <c r="V108">
+        <v>0.392</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="C109" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109">
+        <v>34</v>
+      </c>
+      <c r="E109" t="s">
+        <v>119</v>
+      </c>
+      <c r="H109" t="s">
+        <v>148</v>
+      </c>
+      <c r="L109" t="s">
+        <v>252</v>
+      </c>
+      <c r="N109" t="s">
+        <v>263</v>
+      </c>
+      <c r="O109" t="s">
+        <v>267</v>
+      </c>
+      <c r="R109" t="s">
+        <v>467</v>
+      </c>
+      <c r="U109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>0.589</v>
+      </c>
+      <c r="C110" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110">
+        <v>34</v>
+      </c>
+      <c r="E110" t="s">
+        <v>120</v>
+      </c>
+      <c r="F110">
+        <v>0.522</v>
+      </c>
+      <c r="G110">
+        <v>0.334</v>
+      </c>
+      <c r="H110" t="s">
+        <v>148</v>
+      </c>
+      <c r="I110" t="s">
+        <v>223</v>
+      </c>
+      <c r="J110">
+        <v>0.0332</v>
+      </c>
+      <c r="K110">
+        <v>0.104</v>
+      </c>
+      <c r="L110" t="s">
+        <v>252</v>
+      </c>
+      <c r="M110">
+        <v>-8.295999999999999</v>
+      </c>
+      <c r="N110" t="s">
+        <v>263</v>
+      </c>
+      <c r="O110" t="s">
+        <v>267</v>
+      </c>
+      <c r="P110">
+        <v>28</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>338</v>
+      </c>
+      <c r="R110" t="s">
+        <v>468</v>
+      </c>
+      <c r="S110">
+        <v>0.0293</v>
+      </c>
+      <c r="T110">
+        <v>140.651</v>
+      </c>
+      <c r="U110">
+        <v>5</v>
+      </c>
+      <c r="V110">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>0.723</v>
+      </c>
+      <c r="C111" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111">
+        <v>34</v>
+      </c>
+      <c r="E111" t="s">
+        <v>121</v>
+      </c>
+      <c r="F111">
+        <v>0.419</v>
+      </c>
+      <c r="G111">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="H111" t="s">
+        <v>148</v>
+      </c>
+      <c r="I111" t="s">
+        <v>224</v>
+      </c>
+      <c r="J111">
+        <v>0.00395</v>
+      </c>
+      <c r="K111">
+        <v>0.115</v>
+      </c>
+      <c r="L111" t="s">
+        <v>252</v>
+      </c>
+      <c r="M111">
+        <v>-4.76</v>
+      </c>
+      <c r="N111" t="s">
+        <v>263</v>
+      </c>
+      <c r="O111" t="s">
+        <v>267</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>339</v>
+      </c>
+      <c r="R111" t="s">
+        <v>469</v>
+      </c>
+      <c r="S111">
+        <v>0.0663</v>
+      </c>
+      <c r="T111">
+        <v>168.528</v>
+      </c>
+      <c r="U111">
+        <v>5</v>
+      </c>
+      <c r="V111">
+        <v>0.343</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>0.552</v>
+      </c>
+      <c r="C112" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112">
+        <v>34</v>
+      </c>
+      <c r="E112" t="s">
+        <v>122</v>
+      </c>
+      <c r="F112">
         <v>0.541</v>
       </c>
-      <c r="H33" t="s">
-        <v>53</v>
-      </c>
-      <c r="I33" t="s">
-        <v>83</v>
-      </c>
-      <c r="J33">
-        <v>0.000224</v>
-      </c>
-      <c r="K33">
-        <v>0.337</v>
-      </c>
-      <c r="L33" t="s">
-        <v>85</v>
-      </c>
-      <c r="M33">
-        <v>-10.229</v>
-      </c>
-      <c r="N33" t="s">
-        <v>94</v>
-      </c>
-      <c r="O33" t="s">
-        <v>97</v>
-      </c>
-      <c r="P33">
-        <v>29</v>
-      </c>
-      <c r="Q33" t="s">
+      <c r="G112">
+        <v>0.462</v>
+      </c>
+      <c r="H112" t="s">
+        <v>148</v>
+      </c>
+      <c r="I112" t="s">
+        <v>225</v>
+      </c>
+      <c r="J112">
+        <v>1.65e-05</v>
+      </c>
+      <c r="K112">
+        <v>0.095</v>
+      </c>
+      <c r="L112" t="s">
+        <v>252</v>
+      </c>
+      <c r="M112">
+        <v>-11.591</v>
+      </c>
+      <c r="N112" t="s">
+        <v>263</v>
+      </c>
+      <c r="O112" t="s">
+        <v>267</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>340</v>
+      </c>
+      <c r="R112" t="s">
+        <v>470</v>
+      </c>
+      <c r="S112">
+        <v>0.0444</v>
+      </c>
+      <c r="T112">
+        <v>187.312</v>
+      </c>
+      <c r="U112">
+        <v>5</v>
+      </c>
+      <c r="V112">
+        <v>0.645</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>0.00369</v>
+      </c>
+      <c r="C113" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113">
+        <v>34</v>
+      </c>
+      <c r="E113" t="s">
+        <v>123</v>
+      </c>
+      <c r="F113">
+        <v>0.636</v>
+      </c>
+      <c r="G113">
+        <v>0.705</v>
+      </c>
+      <c r="H113" t="s">
+        <v>148</v>
+      </c>
+      <c r="I113" t="s">
+        <v>226</v>
+      </c>
+      <c r="J113">
+        <v>3.66e-05</v>
+      </c>
+      <c r="K113">
+        <v>0.114</v>
+      </c>
+      <c r="L113" t="s">
+        <v>252</v>
+      </c>
+      <c r="M113">
+        <v>-9.263999999999999</v>
+      </c>
+      <c r="N113" t="s">
+        <v>263</v>
+      </c>
+      <c r="O113" t="s">
+        <v>267</v>
+      </c>
+      <c r="P113">
+        <v>4</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>341</v>
+      </c>
+      <c r="R113" t="s">
+        <v>471</v>
+      </c>
+      <c r="S113">
+        <v>0.146</v>
+      </c>
+      <c r="T113">
+        <v>132.222</v>
+      </c>
+      <c r="U113">
+        <v>5</v>
+      </c>
+      <c r="V113">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>0.00158</v>
+      </c>
+      <c r="C114" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114">
+        <v>34</v>
+      </c>
+      <c r="E114" t="s">
+        <v>124</v>
+      </c>
+      <c r="F114">
+        <v>0.432</v>
+      </c>
+      <c r="G114">
+        <v>0.754</v>
+      </c>
+      <c r="H114" t="s">
+        <v>148</v>
+      </c>
+      <c r="I114" t="s">
+        <v>227</v>
+      </c>
+      <c r="J114">
+        <v>0.08110000000000001</v>
+      </c>
+      <c r="K114">
+        <v>0.155</v>
+      </c>
+      <c r="L114" t="s">
+        <v>252</v>
+      </c>
+      <c r="M114">
+        <v>-4.456</v>
+      </c>
+      <c r="N114" t="s">
+        <v>263</v>
+      </c>
+      <c r="O114" t="s">
+        <v>267</v>
+      </c>
+      <c r="P114">
+        <v>11</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>342</v>
+      </c>
+      <c r="R114" t="s">
+        <v>472</v>
+      </c>
+      <c r="S114">
+        <v>0.0308</v>
+      </c>
+      <c r="T114">
+        <v>117.057</v>
+      </c>
+      <c r="U114">
+        <v>5</v>
+      </c>
+      <c r="V114">
+        <v>0.416</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="C115" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115">
+        <v>34</v>
+      </c>
+      <c r="E115" t="s">
+        <v>125</v>
+      </c>
+      <c r="H115" t="s">
+        <v>148</v>
+      </c>
+      <c r="L115" t="s">
+        <v>252</v>
+      </c>
+      <c r="N115" t="s">
+        <v>263</v>
+      </c>
+      <c r="O115" t="s">
+        <v>267</v>
+      </c>
+      <c r="R115" t="s">
+        <v>473</v>
+      </c>
+      <c r="U115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>0.268</v>
+      </c>
+      <c r="C116" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116">
+        <v>34</v>
+      </c>
+      <c r="E116" t="s">
+        <v>117</v>
+      </c>
+      <c r="F116">
+        <v>0.533</v>
+      </c>
+      <c r="G116">
+        <v>0.854</v>
+      </c>
+      <c r="H116" t="s">
+        <v>148</v>
+      </c>
+      <c r="I116" t="s">
+        <v>228</v>
+      </c>
+      <c r="J116">
+        <v>0.07480000000000001</v>
+      </c>
+      <c r="K116">
+        <v>0.95</v>
+      </c>
+      <c r="L116" t="s">
+        <v>252</v>
+      </c>
+      <c r="M116">
+        <v>-6.648</v>
+      </c>
+      <c r="N116" t="s">
+        <v>263</v>
+      </c>
+      <c r="O116" t="s">
+        <v>267</v>
+      </c>
+      <c r="P116">
+        <v>20</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>343</v>
+      </c>
+      <c r="R116" t="s">
+        <v>474</v>
+      </c>
+      <c r="S116">
+        <v>0.06619999999999999</v>
+      </c>
+      <c r="T116">
+        <v>136.748</v>
+      </c>
+      <c r="U116">
+        <v>5</v>
+      </c>
+      <c r="V116">
+        <v>0.732</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>0.0761</v>
+      </c>
+      <c r="C117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117">
+        <v>34</v>
+      </c>
+      <c r="E117" t="s">
+        <v>126</v>
+      </c>
+      <c r="F117">
+        <v>0.437</v>
+      </c>
+      <c r="G117">
+        <v>0.839</v>
+      </c>
+      <c r="H117" t="s">
+        <v>148</v>
+      </c>
+      <c r="I117" t="s">
+        <v>229</v>
+      </c>
+      <c r="J117">
+        <v>0.0569</v>
+      </c>
+      <c r="K117">
+        <v>0.766</v>
+      </c>
+      <c r="L117" t="s">
+        <v>252</v>
+      </c>
+      <c r="M117">
+        <v>-6.505</v>
+      </c>
+      <c r="N117" t="s">
+        <v>263</v>
+      </c>
+      <c r="O117" t="s">
+        <v>267</v>
+      </c>
+      <c r="P117">
+        <v>2</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>344</v>
+      </c>
+      <c r="R117" t="s">
+        <v>475</v>
+      </c>
+      <c r="S117">
+        <v>0.0638</v>
+      </c>
+      <c r="T117">
+        <v>153.474</v>
+      </c>
+      <c r="U117">
+        <v>5</v>
+      </c>
+      <c r="V117">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>0.16</v>
+      </c>
+      <c r="C118" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118">
+        <v>34</v>
+      </c>
+      <c r="E118" t="s">
         <v>127</v>
       </c>
-      <c r="R33" t="s">
-        <v>156</v>
-      </c>
-      <c r="S33">
-        <v>0.115</v>
-      </c>
-      <c r="T33">
-        <v>124.001</v>
-      </c>
-      <c r="U33">
-        <v>4</v>
-      </c>
-      <c r="V33">
+      <c r="F118">
+        <v>0.586</v>
+      </c>
+      <c r="G118">
+        <v>0.526</v>
+      </c>
+      <c r="H118" t="s">
+        <v>148</v>
+      </c>
+      <c r="I118" t="s">
+        <v>230</v>
+      </c>
+      <c r="J118">
+        <v>6.73e-05</v>
+      </c>
+      <c r="K118">
+        <v>0.119</v>
+      </c>
+      <c r="L118" t="s">
+        <v>252</v>
+      </c>
+      <c r="M118">
+        <v>-7.609</v>
+      </c>
+      <c r="N118" t="s">
+        <v>263</v>
+      </c>
+      <c r="O118" t="s">
+        <v>267</v>
+      </c>
+      <c r="P118">
+        <v>3</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>345</v>
+      </c>
+      <c r="R118" t="s">
+        <v>476</v>
+      </c>
+      <c r="S118">
+        <v>0.0275</v>
+      </c>
+      <c r="T118">
+        <v>108.733</v>
+      </c>
+      <c r="U118">
+        <v>5</v>
+      </c>
+      <c r="V118">
+        <v>0.581</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>0.102</v>
+      </c>
+      <c r="C119" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119">
+        <v>34</v>
+      </c>
+      <c r="E119" t="s">
+        <v>128</v>
+      </c>
+      <c r="F119">
+        <v>0.651</v>
+      </c>
+      <c r="G119">
+        <v>0.927</v>
+      </c>
+      <c r="H119" t="s">
+        <v>148</v>
+      </c>
+      <c r="I119" t="s">
+        <v>231</v>
+      </c>
+      <c r="J119">
+        <v>0.0243</v>
+      </c>
+      <c r="K119">
+        <v>0.144</v>
+      </c>
+      <c r="L119" t="s">
+        <v>252</v>
+      </c>
+      <c r="M119">
+        <v>-3.112</v>
+      </c>
+      <c r="N119" t="s">
+        <v>263</v>
+      </c>
+      <c r="O119" t="s">
+        <v>267</v>
+      </c>
+      <c r="P119">
+        <v>15</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>346</v>
+      </c>
+      <c r="R119" t="s">
+        <v>477</v>
+      </c>
+      <c r="S119">
+        <v>0.0352</v>
+      </c>
+      <c r="T119">
+        <v>127.085</v>
+      </c>
+      <c r="U119">
+        <v>5</v>
+      </c>
+      <c r="V119">
+        <v>0.8120000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="C120" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120">
+        <v>34</v>
+      </c>
+      <c r="E120" t="s">
+        <v>129</v>
+      </c>
+      <c r="H120" t="s">
+        <v>148</v>
+      </c>
+      <c r="L120" t="s">
+        <v>252</v>
+      </c>
+      <c r="N120" t="s">
+        <v>263</v>
+      </c>
+      <c r="O120" t="s">
+        <v>267</v>
+      </c>
+      <c r="R120" t="s">
+        <v>478</v>
+      </c>
+      <c r="U120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>0.695</v>
+      </c>
+      <c r="C121" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121">
+        <v>34</v>
+      </c>
+      <c r="E121" t="s">
+        <v>130</v>
+      </c>
+      <c r="F121">
+        <v>0.534</v>
+      </c>
+      <c r="G121">
+        <v>0.468</v>
+      </c>
+      <c r="H121" t="s">
+        <v>148</v>
+      </c>
+      <c r="I121" t="s">
+        <v>232</v>
+      </c>
+      <c r="J121">
+        <v>0.0688</v>
+      </c>
+      <c r="K121">
+        <v>0.0997</v>
+      </c>
+      <c r="L121" t="s">
+        <v>252</v>
+      </c>
+      <c r="M121">
+        <v>-10.648</v>
+      </c>
+      <c r="N121" t="s">
+        <v>263</v>
+      </c>
+      <c r="O121" t="s">
+        <v>267</v>
+      </c>
+      <c r="P121">
+        <v>3</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>347</v>
+      </c>
+      <c r="R121" t="s">
+        <v>479</v>
+      </c>
+      <c r="S121">
+        <v>0.0313</v>
+      </c>
+      <c r="T121">
+        <v>99.925</v>
+      </c>
+      <c r="U121">
+        <v>5</v>
+      </c>
+      <c r="V121">
+        <v>0.142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>0.178</v>
+      </c>
+      <c r="C122" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122">
+        <v>34</v>
+      </c>
+      <c r="E122" t="s">
+        <v>131</v>
+      </c>
+      <c r="F122">
+        <v>0.343</v>
+      </c>
+      <c r="G122">
+        <v>0.858</v>
+      </c>
+      <c r="H122" t="s">
+        <v>148</v>
+      </c>
+      <c r="I122" t="s">
+        <v>233</v>
+      </c>
+      <c r="J122">
+        <v>1.48e-05</v>
+      </c>
+      <c r="K122">
+        <v>0.232</v>
+      </c>
+      <c r="L122" t="s">
+        <v>252</v>
+      </c>
+      <c r="M122">
+        <v>-4.898</v>
+      </c>
+      <c r="N122" t="s">
+        <v>263</v>
+      </c>
+      <c r="O122" t="s">
+        <v>267</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>348</v>
+      </c>
+      <c r="R122" t="s">
+        <v>480</v>
+      </c>
+      <c r="S122">
+        <v>0.0441</v>
+      </c>
+      <c r="T122">
+        <v>99.563</v>
+      </c>
+      <c r="U122">
+        <v>5</v>
+      </c>
+      <c r="V122">
+        <v>0.142</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>0.126</v>
+      </c>
+      <c r="C123" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123">
+        <v>34</v>
+      </c>
+      <c r="E123" t="s">
+        <v>132</v>
+      </c>
+      <c r="F123">
+        <v>0.36</v>
+      </c>
+      <c r="G123">
+        <v>0.713</v>
+      </c>
+      <c r="H123" t="s">
+        <v>148</v>
+      </c>
+      <c r="I123" t="s">
+        <v>234</v>
+      </c>
+      <c r="J123">
+        <v>0.0476</v>
+      </c>
+      <c r="K123">
+        <v>0.356</v>
+      </c>
+      <c r="L123" t="s">
+        <v>252</v>
+      </c>
+      <c r="M123">
+        <v>-4.102</v>
+      </c>
+      <c r="N123" t="s">
+        <v>263</v>
+      </c>
+      <c r="O123" t="s">
+        <v>267</v>
+      </c>
+      <c r="P123">
+        <v>7</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>331</v>
+      </c>
+      <c r="R123" t="s">
+        <v>481</v>
+      </c>
+      <c r="S123">
+        <v>0.06809999999999999</v>
+      </c>
+      <c r="T123">
+        <v>171.179</v>
+      </c>
+      <c r="U123">
+        <v>5</v>
+      </c>
+      <c r="V123">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>0.286</v>
+      </c>
+      <c r="C124" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124">
+        <v>34</v>
+      </c>
+      <c r="E124" t="s">
+        <v>133</v>
+      </c>
+      <c r="F124">
+        <v>0.661</v>
+      </c>
+      <c r="G124">
+        <v>0.415</v>
+      </c>
+      <c r="H124" t="s">
+        <v>148</v>
+      </c>
+      <c r="I124" t="s">
+        <v>235</v>
+      </c>
+      <c r="J124">
+        <v>0.000296</v>
+      </c>
+      <c r="K124">
+        <v>0.134</v>
+      </c>
+      <c r="L124" t="s">
+        <v>252</v>
+      </c>
+      <c r="M124">
+        <v>-9.404</v>
+      </c>
+      <c r="N124" t="s">
+        <v>263</v>
+      </c>
+      <c r="O124" t="s">
+        <v>267</v>
+      </c>
+      <c r="P124">
+        <v>2</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>349</v>
+      </c>
+      <c r="R124" t="s">
+        <v>482</v>
+      </c>
+      <c r="S124">
+        <v>0.0277</v>
+      </c>
+      <c r="T124">
+        <v>109.93</v>
+      </c>
+      <c r="U124">
+        <v>5</v>
+      </c>
+      <c r="V124">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>0.181</v>
+      </c>
+      <c r="C125" t="s">
+        <v>26</v>
+      </c>
+      <c r="D125">
+        <v>34</v>
+      </c>
+      <c r="E125" t="s">
+        <v>134</v>
+      </c>
+      <c r="F125">
+        <v>0.511</v>
+      </c>
+      <c r="G125">
+        <v>0.769</v>
+      </c>
+      <c r="H125" t="s">
+        <v>148</v>
+      </c>
+      <c r="I125" t="s">
+        <v>236</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0.0921</v>
+      </c>
+      <c r="L125" t="s">
+        <v>253</v>
+      </c>
+      <c r="M125">
+        <v>-7.032</v>
+      </c>
+      <c r="N125" t="s">
+        <v>262</v>
+      </c>
+      <c r="O125" t="s">
+        <v>265</v>
+      </c>
+      <c r="P125">
+        <v>70</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>350</v>
+      </c>
+      <c r="R125" t="s">
+        <v>483</v>
+      </c>
+      <c r="S125">
+        <v>0.042</v>
+      </c>
+      <c r="T125">
+        <v>129.657</v>
+      </c>
+      <c r="U125">
+        <v>5</v>
+      </c>
+      <c r="V125">
+        <v>0.8179999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="C126" t="s">
+        <v>26</v>
+      </c>
+      <c r="D126">
+        <v>34</v>
+      </c>
+      <c r="E126" t="s">
+        <v>135</v>
+      </c>
+      <c r="H126" t="s">
+        <v>148</v>
+      </c>
+      <c r="L126" t="s">
+        <v>253</v>
+      </c>
+      <c r="N126" t="s">
+        <v>262</v>
+      </c>
+      <c r="O126" t="s">
+        <v>265</v>
+      </c>
+      <c r="R126" t="s">
+        <v>484</v>
+      </c>
+      <c r="U126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>0.798</v>
+      </c>
+      <c r="C127" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127">
+        <v>34</v>
+      </c>
+      <c r="E127" t="s">
+        <v>136</v>
+      </c>
+      <c r="F127">
+        <v>0.777</v>
+      </c>
+      <c r="G127">
+        <v>0.648</v>
+      </c>
+      <c r="H127" t="s">
+        <v>148</v>
+      </c>
+      <c r="I127" t="s">
+        <v>237</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0.234</v>
+      </c>
+      <c r="L127" t="s">
+        <v>253</v>
+      </c>
+      <c r="M127">
+        <v>-9.029</v>
+      </c>
+      <c r="N127" t="s">
+        <v>262</v>
+      </c>
+      <c r="O127" t="s">
+        <v>265</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>351</v>
+      </c>
+      <c r="R127" t="s">
+        <v>485</v>
+      </c>
+      <c r="S127">
+        <v>0.0522</v>
+      </c>
+      <c r="T127">
+        <v>130.114</v>
+      </c>
+      <c r="U127">
+        <v>5</v>
+      </c>
+      <c r="V127">
+        <v>0.959</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>0.123</v>
+      </c>
+      <c r="C128" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128">
+        <v>34</v>
+      </c>
+      <c r="E128" t="s">
+        <v>48</v>
+      </c>
+      <c r="F128">
+        <v>0.49</v>
+      </c>
+      <c r="G128">
+        <v>0.725</v>
+      </c>
+      <c r="H128" t="s">
+        <v>148</v>
+      </c>
+      <c r="I128" t="s">
+        <v>169</v>
+      </c>
+      <c r="J128">
+        <v>2.68e-05</v>
+      </c>
+      <c r="K128">
+        <v>0.0983</v>
+      </c>
+      <c r="L128" t="s">
+        <v>253</v>
+      </c>
+      <c r="M128">
+        <v>-3.304</v>
+      </c>
+      <c r="N128" t="s">
+        <v>262</v>
+      </c>
+      <c r="O128" t="s">
+        <v>265</v>
+      </c>
+      <c r="P128">
+        <v>76</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>288</v>
+      </c>
+      <c r="R128" t="s">
+        <v>383</v>
+      </c>
+      <c r="S128">
+        <v>0.0392</v>
+      </c>
+      <c r="T128">
+        <v>123.28</v>
+      </c>
+      <c r="U128">
+        <v>5</v>
+      </c>
+      <c r="V128">
+        <v>0.335</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>0.0346</v>
+      </c>
+      <c r="C129" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129">
+        <v>34</v>
+      </c>
+      <c r="E129" t="s">
+        <v>137</v>
+      </c>
+      <c r="F129">
+        <v>0.695</v>
+      </c>
+      <c r="G129">
+        <v>0.799</v>
+      </c>
+      <c r="H129" t="s">
+        <v>148</v>
+      </c>
+      <c r="I129" t="s">
+        <v>238</v>
+      </c>
+      <c r="J129">
+        <v>0.456</v>
+      </c>
+      <c r="K129">
+        <v>0.207</v>
+      </c>
+      <c r="L129" t="s">
+        <v>253</v>
+      </c>
+      <c r="M129">
+        <v>-7.337</v>
+      </c>
+      <c r="N129" t="s">
+        <v>262</v>
+      </c>
+      <c r="O129" t="s">
+        <v>265</v>
+      </c>
+      <c r="P129">
+        <v>49</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>352</v>
+      </c>
+      <c r="R129" t="s">
+        <v>486</v>
+      </c>
+      <c r="S129">
+        <v>0.0409</v>
+      </c>
+      <c r="T129">
+        <v>130.063</v>
+      </c>
+      <c r="U129">
+        <v>5</v>
+      </c>
+      <c r="V129">
+        <v>0.555</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>0.0541</v>
+      </c>
+      <c r="C130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130">
+        <v>34</v>
+      </c>
+      <c r="E130" t="s">
+        <v>138</v>
+      </c>
+      <c r="F130">
+        <v>0.456</v>
+      </c>
+      <c r="G130">
+        <v>0.84</v>
+      </c>
+      <c r="H130" t="s">
+        <v>148</v>
+      </c>
+      <c r="I130" t="s">
+        <v>239</v>
+      </c>
+      <c r="J130">
+        <v>0.000186</v>
+      </c>
+      <c r="K130">
+        <v>0.126</v>
+      </c>
+      <c r="L130" t="s">
+        <v>253</v>
+      </c>
+      <c r="M130">
+        <v>-5.607</v>
+      </c>
+      <c r="N130" t="s">
+        <v>262</v>
+      </c>
+      <c r="O130" t="s">
+        <v>265</v>
+      </c>
+      <c r="P130">
+        <v>48</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>353</v>
+      </c>
+      <c r="R130" t="s">
+        <v>487</v>
+      </c>
+      <c r="S130">
+        <v>0.0613</v>
+      </c>
+      <c r="T130">
+        <v>113.715</v>
+      </c>
+      <c r="U130">
+        <v>5</v>
+      </c>
+      <c r="V130">
+        <v>0.427</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>0.53</v>
+      </c>
+      <c r="C131" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131">
+        <v>34</v>
+      </c>
+      <c r="E131" t="s">
+        <v>139</v>
+      </c>
+      <c r="F131">
+        <v>0.729</v>
+      </c>
+      <c r="G131">
+        <v>0.675</v>
+      </c>
+      <c r="H131" t="s">
+        <v>148</v>
+      </c>
+      <c r="I131" t="s">
+        <v>240</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0.0985</v>
+      </c>
+      <c r="L131" t="s">
+        <v>253</v>
+      </c>
+      <c r="M131">
+        <v>-5.62</v>
+      </c>
+      <c r="N131" t="s">
+        <v>262</v>
+      </c>
+      <c r="O131" t="s">
+        <v>265</v>
+      </c>
+      <c r="P131">
+        <v>66</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>354</v>
+      </c>
+      <c r="R131" t="s">
+        <v>488</v>
+      </c>
+      <c r="S131">
+        <v>0.0415</v>
+      </c>
+      <c r="T131">
+        <v>116.016</v>
+      </c>
+      <c r="U131">
+        <v>5</v>
+      </c>
+      <c r="V131">
+        <v>0.332</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>0.883</v>
+      </c>
+      <c r="C132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132">
+        <v>34</v>
+      </c>
+      <c r="E132" t="s">
+        <v>140</v>
+      </c>
+      <c r="F132">
+        <v>0.696</v>
+      </c>
+      <c r="G132">
+        <v>0.332</v>
+      </c>
+      <c r="H132" t="s">
+        <v>148</v>
+      </c>
+      <c r="I132" t="s">
+        <v>241</v>
+      </c>
+      <c r="J132">
+        <v>0.217</v>
+      </c>
+      <c r="K132">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="L132" t="s">
+        <v>253</v>
+      </c>
+      <c r="M132">
+        <v>-20.338</v>
+      </c>
+      <c r="N132" t="s">
+        <v>262</v>
+      </c>
+      <c r="O132" t="s">
+        <v>265</v>
+      </c>
+      <c r="P132">
+        <v>43</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>355</v>
+      </c>
+      <c r="R132" t="s">
+        <v>489</v>
+      </c>
+      <c r="S132">
+        <v>0.0701</v>
+      </c>
+      <c r="T132">
+        <v>106.553</v>
+      </c>
+      <c r="U132">
+        <v>5</v>
+      </c>
+      <c r="V132">
+        <v>0.771</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>0.0118</v>
+      </c>
+      <c r="C133" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133">
+        <v>34</v>
+      </c>
+      <c r="E133" t="s">
+        <v>141</v>
+      </c>
+      <c r="F133">
+        <v>0.747</v>
+      </c>
+      <c r="G133">
+        <v>0.662</v>
+      </c>
+      <c r="H133" t="s">
+        <v>148</v>
+      </c>
+      <c r="I133" t="s">
+        <v>242</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0.138</v>
+      </c>
+      <c r="L133" t="s">
+        <v>253</v>
+      </c>
+      <c r="M133">
+        <v>-7.9</v>
+      </c>
+      <c r="N133" t="s">
+        <v>262</v>
+      </c>
+      <c r="O133" t="s">
+        <v>265</v>
+      </c>
+      <c r="P133">
+        <v>63</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>356</v>
+      </c>
+      <c r="R133" t="s">
+        <v>490</v>
+      </c>
+      <c r="S133">
+        <v>0.0796</v>
+      </c>
+      <c r="T133">
+        <v>88.926</v>
+      </c>
+      <c r="U133">
+        <v>5</v>
+      </c>
+      <c r="V133">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>0.08459999999999999</v>
+      </c>
+      <c r="C134" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134">
+        <v>34</v>
+      </c>
+      <c r="E134" t="s">
+        <v>142</v>
+      </c>
+      <c r="F134">
+        <v>0.616</v>
+      </c>
+      <c r="G134">
+        <v>0.834</v>
+      </c>
+      <c r="H134" t="s">
+        <v>148</v>
+      </c>
+      <c r="I134" t="s">
+        <v>243</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
         <v>0.62</v>
+      </c>
+      <c r="L134" t="s">
+        <v>253</v>
+      </c>
+      <c r="M134">
+        <v>-4.932</v>
+      </c>
+      <c r="N134" t="s">
+        <v>262</v>
+      </c>
+      <c r="O134" t="s">
+        <v>265</v>
+      </c>
+      <c r="P134">
+        <v>31</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>357</v>
+      </c>
+      <c r="R134" t="s">
+        <v>491</v>
+      </c>
+      <c r="S134">
+        <v>0.0422</v>
+      </c>
+      <c r="T134">
+        <v>123.01</v>
+      </c>
+      <c r="U134">
+        <v>5</v>
+      </c>
+      <c r="V134">
+        <v>0.863</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>0.502</v>
+      </c>
+      <c r="C135" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135">
+        <v>34</v>
+      </c>
+      <c r="E135" t="s">
+        <v>143</v>
+      </c>
+      <c r="F135">
+        <v>0.533</v>
+      </c>
+      <c r="G135">
+        <v>0.754</v>
+      </c>
+      <c r="H135" t="s">
+        <v>148</v>
+      </c>
+      <c r="I135" t="s">
+        <v>244</v>
+      </c>
+      <c r="J135">
+        <v>0.16</v>
+      </c>
+      <c r="K135">
+        <v>0.101</v>
+      </c>
+      <c r="L135" t="s">
+        <v>253</v>
+      </c>
+      <c r="M135">
+        <v>-6.114</v>
+      </c>
+      <c r="N135" t="s">
+        <v>262</v>
+      </c>
+      <c r="O135" t="s">
+        <v>265</v>
+      </c>
+      <c r="P135">
+        <v>28</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>358</v>
+      </c>
+      <c r="R135" t="s">
+        <v>492</v>
+      </c>
+      <c r="S135">
+        <v>0.0331</v>
+      </c>
+      <c r="T135">
+        <v>140.53</v>
+      </c>
+      <c r="U135">
+        <v>5</v>
+      </c>
+      <c r="V135">
+        <v>0.819</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>0.0112</v>
+      </c>
+      <c r="C136" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136">
+        <v>34</v>
+      </c>
+      <c r="E136" t="s">
+        <v>38</v>
+      </c>
+      <c r="F136">
+        <v>0.637</v>
+      </c>
+      <c r="G136">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="H136" t="s">
+        <v>148</v>
+      </c>
+      <c r="I136" t="s">
+        <v>245</v>
+      </c>
+      <c r="J136">
+        <v>0.0234</v>
+      </c>
+      <c r="K136">
+        <v>0.0473</v>
+      </c>
+      <c r="L136" t="s">
+        <v>253</v>
+      </c>
+      <c r="M136">
+        <v>-11.625</v>
+      </c>
+      <c r="N136" t="s">
+        <v>262</v>
+      </c>
+      <c r="O136" t="s">
+        <v>265</v>
+      </c>
+      <c r="P136">
+        <v>60</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>359</v>
+      </c>
+      <c r="R136" t="s">
+        <v>493</v>
+      </c>
+      <c r="S136">
+        <v>0.0366</v>
+      </c>
+      <c r="T136">
+        <v>129.983</v>
+      </c>
+      <c r="U136">
+        <v>5</v>
+      </c>
+      <c r="V136">
+        <v>0.714</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>0.39</v>
+      </c>
+      <c r="C137" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137">
+        <v>34</v>
+      </c>
+      <c r="E137" t="s">
+        <v>144</v>
+      </c>
+      <c r="F137">
+        <v>0.783</v>
+      </c>
+      <c r="G137">
+        <v>0.878</v>
+      </c>
+      <c r="H137" t="s">
+        <v>148</v>
+      </c>
+      <c r="I137" t="s">
+        <v>246</v>
+      </c>
+      <c r="J137">
+        <v>0.000778</v>
+      </c>
+      <c r="K137">
+        <v>0.0426</v>
+      </c>
+      <c r="L137" t="s">
+        <v>253</v>
+      </c>
+      <c r="M137">
+        <v>-3.864</v>
+      </c>
+      <c r="N137" t="s">
+        <v>262</v>
+      </c>
+      <c r="O137" t="s">
+        <v>265</v>
+      </c>
+      <c r="P137">
+        <v>72</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>360</v>
+      </c>
+      <c r="R137" t="s">
+        <v>494</v>
+      </c>
+      <c r="S137">
+        <v>0.0308</v>
+      </c>
+      <c r="T137">
+        <v>100.626</v>
+      </c>
+      <c r="U137">
+        <v>5</v>
+      </c>
+      <c r="V137">
+        <v>0.885</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="C138" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138">
+        <v>34</v>
+      </c>
+      <c r="E138" t="s">
+        <v>145</v>
+      </c>
+      <c r="H138" t="s">
+        <v>148</v>
+      </c>
+      <c r="L138" t="s">
+        <v>253</v>
+      </c>
+      <c r="N138" t="s">
+        <v>262</v>
+      </c>
+      <c r="O138" t="s">
+        <v>265</v>
+      </c>
+      <c r="R138" t="s">
+        <v>495</v>
+      </c>
+      <c r="U138">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
